--- a/DataBase/資料庫建立檢表.xlsx
+++ b/DataBase/資料庫建立檢表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="簡釋" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="備用原檔" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="323">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -791,10 +791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>會員資料customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1251,6 +1247,114 @@
     <t>ex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女多元無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員資料customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存會員基本資料
+會員帳號、密碼、圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單資料ord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">儲存每張訂單編號、訂單總金額、以及相關運送、折扣方式的資料庫
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租賃設備訂單細項rentitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品訂單細項 buyitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品 product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租賃設備 rentproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要儲存
+生成的租賃訂單編號、租用商品、起退租日期、天數
+以及租用會員的資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評價資料 comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品分類protype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣資料 discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存各種折扣方式的折扣碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要儲存
+系統生成的購物商品訂單編號、紀錄每張訂單購買的每一項商品、單項金額、訂單總金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控管商品的tb:
+存放網站平台提供購買的商品名稱、金額、圖片、總數量相關資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控管租用的tb:
+網站平台提供租用的商品名稱、租用金額、圖片、總數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄會員問題的資料庫,存放提問的問題、以及問題內容
+聯絡發問人的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+紀錄每個商品的評價分數、
+其他客戶回饋使用的感想心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將所有產品做種類分類,分出的種類設為主鍵
+提供商品tb做外鍵使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當有人預約
+資料庫儲存每張預約訂單的編號、需要租用的商品等待序號、商品狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1259,7 +1363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1350,6 +1454,30 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1512,7 +1640,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1654,32 +1782,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1689,9 +1796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1705,9 +1809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,9 +1816,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1734,6 +1832,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2033,10 +2176,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:X169"/>
+  <dimension ref="A1:Y169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2050,24 +2193,25 @@
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="14" max="14" width="33.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="47"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="64"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2076,11 +2220,11 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="N1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="O1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2106,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
@@ -2118,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2146,7 +2290,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -2167,9 +2311,15 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="M4" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2190,8 +2340,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="M5" s="54"/>
+      <c r="N5" s="56"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -2212,13 +2364,15 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="M6" s="54"/>
+      <c r="N6" s="56"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -2234,13 +2388,15 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="M7" s="54"/>
+      <c r="N7" s="56"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -2256,8 +2412,10 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="M8" s="54"/>
+      <c r="N8" s="56"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2276,14 +2434,16 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="19"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="M9" s="54"/>
+      <c r="N9" s="56"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -2304,14 +2464,16 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="19"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="56"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -2332,14 +2494,16 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="19"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="56"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -2360,14 +2524,14 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -2388,22 +2552,22 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="O13" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="P13" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="48"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -2417,20 +2581,20 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="40"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="56"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="U14" s="40"/>
+      <c r="V14" s="49"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>296</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>297</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -2446,15 +2610,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="13"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="56"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="U15" s="13"/>
+      <c r="V15" s="49"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
@@ -2475,17 +2639,17 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="O16" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="50" t="s">
+        <v>272</v>
+      </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="56"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="U16" s="13"/>
+      <c r="V16" s="49"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -2498,15 +2662,15 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="13"/>
+      <c r="P17" s="50"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="U17" s="13"/>
+      <c r="V17" s="49"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -2519,38 +2683,38 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="50"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="56"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="O19" s="57" t="s">
+      <c r="U18" s="13"/>
+      <c r="V18" s="49"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="P19" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="P19" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="56"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="47" t="s">
+      <c r="Q19" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="R19" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="49"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="47"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2559,21 +2723,21 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="O20" s="57" t="s">
+      <c r="P20" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="R20" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="P20" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="56"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="U20" s="13"/>
+      <c r="V20" s="49"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>8</v>
@@ -2610,30 +2774,30 @@
       <c r="L21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N21" t="s">
-        <v>261</v>
-      </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="R21" s="13"/>
+      <c r="O21" t="s">
+        <v>260</v>
+      </c>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>275</v>
+      </c>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="56"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="U21" s="13"/>
+      <c r="V21" s="49"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>177</v>
@@ -2648,22 +2812,22 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="N22" t="s">
-        <v>260</v>
-      </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="R22" s="13"/>
+      <c r="O22" t="s">
+        <v>259</v>
+      </c>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="R22" s="52" t="s">
+        <v>276</v>
+      </c>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="56"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="U22" s="13"/>
+      <c r="V22" s="49"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -2692,18 +2856,18 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="N23" t="s">
-        <v>262</v>
-      </c>
-      <c r="O23" s="57"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="13"/>
+      <c r="O23" t="s">
+        <v>261</v>
+      </c>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="52"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="56"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="U23" s="13"/>
+      <c r="V23" s="49"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2722,15 +2886,15 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="13"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="56"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="U24" s="13"/>
+      <c r="V24" s="49"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2738,7 +2902,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>174</v>
@@ -2753,19 +2917,19 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O25" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="13"/>
+        <v>192</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="52"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="56"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="U25" s="13"/>
+      <c r="V25" s="49"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -2786,21 +2950,21 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="O26" s="57" t="s">
+      <c r="P26" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="P26" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q26" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="56"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="Q26" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="R26" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="49"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -2821,21 +2985,21 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="O27" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="R27" s="13"/>
+      <c r="P27" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="R27" s="52" t="s">
+        <v>274</v>
+      </c>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="56"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="U27" s="13"/>
+      <c r="V27" s="49"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -2856,19 +3020,19 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="R28" s="13"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="R28" s="52" t="s">
+        <v>275</v>
+      </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="56"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="U28" s="13"/>
+      <c r="V28" s="49"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -2889,19 +3053,19 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="R29" s="13"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="R29" s="52" t="s">
+        <v>276</v>
+      </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="56"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="U29" s="13"/>
+      <c r="V29" s="49"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -2922,27 +3086,27 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="13"/>
+      <c r="P30" s="50"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="56"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="U30" s="13"/>
+      <c r="V30" s="49"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2951,15 +3115,15 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="13"/>
+      <c r="P31" s="50"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="56"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="U31" s="13"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -2967,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>177</v>
@@ -2982,25 +3146,25 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="O32" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="P32" s="13"/>
+      <c r="P32" s="50" t="s">
+        <v>278</v>
+      </c>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="56"/>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="U32" s="13"/>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>177</v>
@@ -3015,29 +3179,29 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="O33" s="57" t="s">
+      <c r="P33" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="P33" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q33" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="56"/>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Q33" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R33" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>177</v>
@@ -3052,21 +3216,21 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="O34" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="R34" s="13"/>
+      <c r="P34" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="R34" s="52" t="s">
+        <v>274</v>
+      </c>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="56"/>
-    </row>
-    <row r="35" spans="1:24" s="19" customFormat="1">
+      <c r="U34" s="13"/>
+      <c r="V34" s="49"/>
+    </row>
+    <row r="35" spans="1:25" s="19" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3074,10 +3238,10 @@
         <v>132</v>
       </c>
       <c r="C35" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="E35" s="22">
         <v>20</v>
@@ -3087,23 +3251,23 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="R35" s="13"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="R35" s="52" t="s">
+        <v>275</v>
+      </c>
       <c r="S35" s="13"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="63"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="T35" s="13"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="55"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
@@ -3122,19 +3286,19 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="R36" s="13"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="R36" s="52" t="s">
+        <v>276</v>
+      </c>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="56"/>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="U36" s="13"/>
+      <c r="V36" s="49"/>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -3155,68 +3319,68 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="13"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="52"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="56"/>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="O38" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="49"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="P38" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="56"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="O39" s="64"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="49"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="P39" s="72"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="56"/>
-    </row>
-    <row r="40" spans="1:24" ht="24.6">
-      <c r="O40" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="P40" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="49"/>
+    </row>
+    <row r="40" spans="1:25" ht="24.6">
+      <c r="P40" s="57" t="s">
+        <v>280</v>
+      </c>
       <c r="Q40" s="13"/>
-      <c r="R40" s="37"/>
+      <c r="R40" s="13"/>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="58"/>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="O41" s="57"/>
-      <c r="P41" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="13"/>
+      <c r="Y40" s="37"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="56"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="47" t="s">
+      <c r="U41" s="13"/>
+      <c r="V41" s="49"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3225,18 +3389,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="N42" t="s">
-        <v>261</v>
-      </c>
-      <c r="O42" s="57"/>
-      <c r="P42" s="13"/>
+      <c r="O42" t="s">
+        <v>260</v>
+      </c>
+      <c r="P42" s="50"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="56"/>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="U42" s="13"/>
+      <c r="V42" s="49"/>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3262,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>8</v>
@@ -3273,34 +3437,34 @@
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N43" t="s">
-        <v>260</v>
-      </c>
-      <c r="O43" s="57"/>
-      <c r="P43" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q43" s="6" t="s">
+      <c r="O43" t="s">
+        <v>259</v>
+      </c>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="S43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="30" t="s">
+      <c r="T43" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="U43" s="13"/>
+      <c r="V43" s="49"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="T43" s="13"/>
-      <c r="U43" s="56"/>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="31" t="s">
-        <v>259</v>
-      </c>
       <c r="B44" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>177</v>
@@ -3315,26 +3479,26 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="N44" t="s">
-        <v>262</v>
-      </c>
-      <c r="O44" s="57"/>
-      <c r="P44" s="6" t="s">
+      <c r="O44" t="s">
+        <v>261</v>
+      </c>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="Q44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S44" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="T44" s="13"/>
-      <c r="U44" s="56"/>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="U44" s="13"/>
+      <c r="V44" s="49"/>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -3342,7 +3506,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>179</v>
@@ -3365,23 +3529,23 @@
       <c r="L45" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O45" s="57"/>
-      <c r="P45" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q45" s="43">
+      <c r="P45" s="50"/>
+      <c r="Q45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="R45" s="43">
         <v>10001</v>
       </c>
-      <c r="R45" s="22" t="s">
+      <c r="S45" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="T45" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="S45" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="T45" s="13"/>
-      <c r="U45" s="56"/>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="U45" s="13"/>
+      <c r="V45" s="49"/>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3406,31 +3570,31 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q46" s="43">
+      <c r="P46" s="50"/>
+      <c r="Q46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="R46" s="43">
         <v>20002</v>
       </c>
-      <c r="R46" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="T46" s="13"/>
-      <c r="U46" s="56"/>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="S46" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U46" s="13"/>
+      <c r="V46" s="49"/>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>176</v>
@@ -3445,26 +3609,26 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="N47" t="s">
-        <v>263</v>
-      </c>
-      <c r="O47" s="57"/>
-      <c r="P47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q47" s="43">
+      <c r="O47" t="s">
+        <v>262</v>
+      </c>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R47" s="43">
         <v>30003</v>
       </c>
-      <c r="R47" s="22" t="s">
+      <c r="S47" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="S47" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="T47" s="13"/>
-      <c r="U47" s="56"/>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="U47" s="13"/>
+      <c r="V47" s="49"/>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -3485,18 +3649,18 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="N48" s="32">
+      <c r="O48" s="32">
         <v>100001</v>
       </c>
-      <c r="O48" s="69"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="13"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="40"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="56"/>
-    </row>
-    <row r="49" spans="1:21" ht="24.6">
+      <c r="U48" s="13"/>
+      <c r="V48" s="49"/>
+    </row>
+    <row r="49" spans="1:22" ht="24.6">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3517,17 +3681,17 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="O49" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="P49" s="13"/>
+      <c r="P49" s="57" t="s">
+        <v>282</v>
+      </c>
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
-      <c r="S49" s="39"/>
+      <c r="S49" s="13"/>
       <c r="T49" s="39"/>
-      <c r="U49" s="70"/>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="U49" s="39"/>
+      <c r="V49" s="60"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -3548,17 +3712,17 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="13"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="56"/>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="U50" s="13"/>
+      <c r="V50" s="49"/>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -3579,15 +3743,15 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="13"/>
+      <c r="P51" s="50"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="56"/>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="U51" s="13"/>
+      <c r="V51" s="49"/>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -3608,25 +3772,25 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q52" s="6" t="s">
+      <c r="P52" s="50"/>
+      <c r="Q52" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S52" s="6" t="s">
+      <c r="S52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T52" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T52" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="U52" s="56"/>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="U52" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="V52" s="49"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -3647,25 +3811,25 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="6" t="s">
+      <c r="P53" s="50"/>
+      <c r="Q53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U53" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T53" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="U53" s="56"/>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53" s="49"/>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -3677,7 +3841,7 @@
         <v>180</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3686,25 +3850,25 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q54" s="43">
+      <c r="P54" s="50"/>
+      <c r="Q54" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R54" s="43">
         <v>10001</v>
       </c>
-      <c r="R54" s="10">
+      <c r="S54" s="10">
         <v>1</v>
       </c>
-      <c r="S54" s="22" t="s">
+      <c r="T54" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="U54" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T54" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U54" s="56"/>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54" s="49"/>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -3723,25 +3887,25 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q55" s="43">
+      <c r="P55" s="50"/>
+      <c r="Q55" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R55" s="43">
         <v>10001</v>
       </c>
-      <c r="R55" s="10">
+      <c r="S55" s="10">
         <v>2</v>
       </c>
-      <c r="S55" s="22" t="s">
+      <c r="T55" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="U55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T55" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="U55" s="56"/>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55" s="49"/>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3762,25 +3926,25 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q56" s="43">
+      <c r="P56" s="50"/>
+      <c r="Q56" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R56" s="43">
         <v>20002</v>
       </c>
-      <c r="R56" s="10">
+      <c r="S56" s="10">
         <v>1</v>
       </c>
-      <c r="S56" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="U56" s="56"/>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="T56" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V56" s="49"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -3788,7 +3952,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>174</v>
@@ -3803,91 +3967,91 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="O57" s="57"/>
-      <c r="P57" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q57" s="43">
+        <v>194</v>
+      </c>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R57" s="43">
         <v>20002</v>
       </c>
-      <c r="R57" s="10">
+      <c r="S57" s="10">
         <v>2</v>
       </c>
-      <c r="S57" s="22" t="s">
+      <c r="T57" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V57" s="49"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="P58" s="50"/>
+      <c r="Q58" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R58" s="43">
+        <v>30003</v>
+      </c>
+      <c r="S58" s="10">
+        <v>1</v>
+      </c>
+      <c r="T58" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="T57" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="U57" s="56"/>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="O58" s="57"/>
-      <c r="P58" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q58" s="43">
+      <c r="U58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="V58" s="49"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="P59" s="50"/>
+      <c r="Q59" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="R59" s="43">
         <v>30003</v>
       </c>
-      <c r="R58" s="10">
-        <v>1</v>
-      </c>
-      <c r="S58" s="22" t="s">
+      <c r="S59" s="10">
+        <v>2</v>
+      </c>
+      <c r="T59" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="U59" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="U58" s="56"/>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="O59" s="57"/>
-      <c r="P59" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q59" s="43">
-        <v>30003</v>
-      </c>
-      <c r="R59" s="10">
-        <v>2</v>
-      </c>
-      <c r="S59" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="U59" s="56"/>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="O60" s="57"/>
-      <c r="P60" s="39"/>
+      <c r="V59" s="49"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="P60" s="50"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
-      <c r="S60" s="13"/>
+      <c r="S60" s="39"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="56"/>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="O61" s="71"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="73"/>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="47" t="s">
+      <c r="U60" s="13"/>
+      <c r="V60" s="49"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="P61" s="61"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="63"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="D62" s="47"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="64"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -3896,16 +4060,16 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
-      <c r="N62" t="s">
-        <v>261</v>
-      </c>
-      <c r="P62" s="13"/>
+      <c r="O62" t="s">
+        <v>260</v>
+      </c>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="U62" s="13"/>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -3931,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>8</v>
@@ -3942,19 +4106,19 @@
       <c r="L63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N63" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="O63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B64" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>177</v>
@@ -3969,11 +4133,11 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="5"/>
-      <c r="N64" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="O64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +4145,7 @@
         <v>147</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>179</v>
@@ -4005,7 +4169,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:21">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4031,15 +4195,15 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:21">
       <c r="A67" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>176</v>
@@ -4054,11 +4218,11 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="N67" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="O67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -4079,19 +4243,19 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="N68" s="32">
+      <c r="O68" s="32">
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:21">
       <c r="A69" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>176</v>
@@ -4106,13 +4270,13 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="N69" s="32">
+      <c r="O69" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:21">
       <c r="A70" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>40</v>
@@ -4132,9 +4296,9 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:21">
       <c r="A71" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>52</v>
@@ -4154,7 +4318,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:21">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -4175,9 +4339,9 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="Q72" s="20"/>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="R72" s="20"/>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4199,7 +4363,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:20" s="13" customFormat="1">
+    <row r="74" spans="1:21" s="13" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -4220,14 +4384,14 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
       <c r="S74"/>
       <c r="T74"/>
-    </row>
-    <row r="75" spans="1:20" s="13" customFormat="1">
+      <c r="U74"/>
+    </row>
+    <row r="75" spans="1:21" s="13" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -4246,14 +4410,14 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75"/>
       <c r="T75"/>
-    </row>
-    <row r="76" spans="1:20" s="13" customFormat="1">
+      <c r="U75"/>
+    </row>
+    <row r="76" spans="1:21" s="13" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -4272,14 +4436,14 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76"/>
       <c r="T76"/>
-    </row>
-    <row r="77" spans="1:20" s="13" customFormat="1">
+      <c r="U76"/>
+    </row>
+    <row r="77" spans="1:21" s="13" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
@@ -4300,13 +4464,13 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77"/>
-    </row>
-    <row r="78" spans="1:20" s="13" customFormat="1">
+      <c r="T77"/>
+    </row>
+    <row r="78" spans="1:21" s="13" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -4318,7 +4482,7 @@
         <v>180</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4327,13 +4491,13 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78"/>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="T78"/>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -4352,10 +4516,10 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="O79" s="13"/>
-      <c r="T79" s="13"/>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="P79" s="13"/>
+      <c r="U79" s="13"/>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -4376,10 +4540,10 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="O80" s="13"/>
-      <c r="T80" s="13"/>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="P80" s="13"/>
+      <c r="U80" s="13"/>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -4387,7 +4551,7 @@
         <v>30</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>174</v>
@@ -4402,46 +4566,46 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="O81" s="13"/>
-      <c r="T81" s="13"/>
-    </row>
-    <row r="82" spans="1:20">
-      <c r="O82" s="13"/>
+        <v>196</v>
+      </c>
+      <c r="P81" s="13"/>
+      <c r="U81" s="13"/>
+    </row>
+    <row r="82" spans="1:21">
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
-    </row>
-    <row r="83" spans="1:20">
-      <c r="O83" s="13"/>
+      <c r="T82" s="13"/>
+    </row>
+    <row r="83" spans="1:21">
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
-    </row>
-    <row r="84" spans="1:20">
-      <c r="P84" s="13"/>
+      <c r="T83" s="13"/>
+    </row>
+    <row r="84" spans="1:21">
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
-    </row>
-    <row r="85" spans="1:20">
-      <c r="P85" s="13"/>
+      <c r="T84" s="13"/>
+    </row>
+    <row r="85" spans="1:21">
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
-    </row>
-    <row r="86" spans="1:20" s="13" customFormat="1">
-      <c r="A86" s="47" t="s">
+      <c r="T85" s="13"/>
+    </row>
+    <row r="86" spans="1:21" s="13" customFormat="1">
+      <c r="A86" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="D86" s="47"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" s="64"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -4450,10 +4614,10 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
-      <c r="O86"/>
-      <c r="T86"/>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="P86"/>
+      <c r="U86"/>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
@@ -4479,7 +4643,7 @@
         <v>7</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>8</v>
@@ -4491,15 +4655,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:21">
       <c r="A88" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>176</v>
@@ -4514,11 +4678,11 @@
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="44"/>
-      <c r="N88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="O88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
@@ -4543,9 +4707,9 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="T89" s="13"/>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89" s="13"/>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -4567,7 +4731,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:21">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -4579,7 +4743,7 @@
         <v>182</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -4588,9 +4752,9 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="O91" s="13"/>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="P91" s="13"/>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -4610,7 +4774,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:21">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
@@ -4632,7 +4796,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:21">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
@@ -4653,17 +4817,17 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="P94" s="13"/>
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="T94" s="13"/>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C95" s="31"/>
       <c r="D95" s="30" t="s">
@@ -4679,16 +4843,16 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="N95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="O95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="6" t="s">
@@ -4705,15 +4869,15 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="47" t="s">
+    <row r="100" spans="1:15">
+      <c r="A100" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="D100" s="47"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="64"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -4723,7 +4887,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -4749,7 +4913,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>8</v>
@@ -4761,15 +4925,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>176</v>
@@ -4784,11 +4948,11 @@
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
       <c r="L102" s="44"/>
-      <c r="N102" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -4813,19 +4977,19 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="N103" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>176</v>
@@ -4841,7 +5005,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -4863,9 +5027,9 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>153</v>
@@ -4875,7 +5039,7 @@
         <v>182</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -4885,7 +5049,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:15">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -4905,7 +5069,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:15">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
@@ -4927,7 +5091,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
@@ -4935,7 +5099,7 @@
         <v>158</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>179</v>
@@ -4951,12 +5115,12 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:15">
       <c r="A110" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C110" s="31"/>
       <c r="D110" s="30" t="s">
@@ -4973,12 +5137,12 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:15">
       <c r="A111" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="6" t="s">
@@ -4995,15 +5159,15 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="47" t="s">
+    <row r="115" spans="1:21">
+      <c r="A115" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47" t="s">
+      <c r="B115" s="64"/>
+      <c r="C115" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="47"/>
+      <c r="D115" s="64"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5013,7 +5177,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:21">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5021,7 +5185,7 @@
         <v>26</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>4</v>
@@ -5039,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>8</v>
@@ -5051,15 +5215,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:21">
       <c r="A117" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B117" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>177</v>
@@ -5076,12 +5240,12 @@
       <c r="H117" s="2"/>
       <c r="I117" s="10"/>
       <c r="J117" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:21">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -5089,7 +5253,7 @@
         <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>179</v>
@@ -5113,15 +5277,15 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:20" s="19" customFormat="1">
+    <row r="119" spans="1:21" s="19" customFormat="1">
       <c r="A119" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>179</v>
@@ -5136,22 +5300,22 @@
       <c r="J119" s="22"/>
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
-      <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
       <c r="R119"/>
       <c r="S119"/>
       <c r="T119"/>
-    </row>
-    <row r="120" spans="1:20" s="19" customFormat="1">
+      <c r="U119"/>
+    </row>
+    <row r="120" spans="1:21" s="19" customFormat="1">
       <c r="A120" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D120" s="30" t="s">
         <v>176</v>
@@ -5166,17 +5330,17 @@
       <c r="J120" s="22"/>
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
-      <c r="N120" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="O120"/>
+      <c r="O120" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="P120"/>
       <c r="Q120"/>
       <c r="R120"/>
       <c r="S120"/>
       <c r="T120"/>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="U120"/>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -5197,19 +5361,19 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="N121" s="32">
+      <c r="O121" s="32">
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:21">
       <c r="A122" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="D122" s="30" t="s">
         <v>176</v>
@@ -5224,12 +5388,12 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-      <c r="N122" t="s">
-        <v>269</v>
-      </c>
-      <c r="T122" s="19"/>
-    </row>
-    <row r="123" spans="1:20">
+      <c r="O122" t="s">
+        <v>268</v>
+      </c>
+      <c r="U122" s="19"/>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
@@ -5250,9 +5414,9 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-      <c r="T123" s="19"/>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="U123" s="19"/>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="5" t="s">
         <v>164</v>
       </c>
@@ -5260,13 +5424,13 @@
         <v>165</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E124" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -5275,9 +5439,9 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="O124" s="19"/>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="P124" s="19"/>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
@@ -5296,9 +5460,9 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="O125" s="19"/>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="P125" s="19"/>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
@@ -5320,7 +5484,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:21">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -5328,7 +5492,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>174</v>
@@ -5343,28 +5507,28 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="P127" s="19"/>
+        <v>203</v>
+      </c>
       <c r="Q127" s="19"/>
       <c r="R127" s="19"/>
       <c r="S127" s="19"/>
-    </row>
-    <row r="128" spans="1:20">
-      <c r="P128" s="19"/>
+      <c r="T127" s="19"/>
+    </row>
+    <row r="128" spans="1:21">
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="47" t="s">
+      <c r="T128" s="19"/>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="47"/>
-      <c r="C131" s="47" t="s">
+      <c r="B131" s="64"/>
+      <c r="C131" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="47"/>
+      <c r="D131" s="64"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -5374,7 +5538,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:16">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -5400,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>8</v>
@@ -5412,7 +5576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:16">
       <c r="A133" s="7" t="s">
         <v>86</v>
       </c>
@@ -5420,7 +5584,7 @@
         <v>30</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>174</v>
@@ -5435,18 +5599,18 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B134" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C134" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="D134" s="31" t="s">
         <v>177</v>
@@ -5462,7 +5626,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
@@ -5470,7 +5634,7 @@
         <v>28</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>179</v>
@@ -5485,10 +5649,10 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
@@ -5510,7 +5674,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -5532,7 +5696,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -5540,7 +5704,7 @@
         <v>95</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>177</v>
@@ -5555,9 +5719,9 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="N138" s="13"/>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="O138" s="13"/>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="8" t="s">
         <v>96</v>
       </c>
@@ -5578,18 +5742,18 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-      <c r="N139" s="13"/>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="O139" s="13"/>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -5599,26 +5763,26 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-      <c r="N140" s="13"/>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="N141" s="13"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="N142" s="13"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="O143" s="13"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="47" t="s">
+      <c r="O140" s="13"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="O141" s="13"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="O142" s="13"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="P143" s="13"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="47"/>
-      <c r="C144" s="47" t="s">
+      <c r="B144" s="64"/>
+      <c r="C144" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="47"/>
+      <c r="D144" s="64"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -5627,9 +5791,9 @@
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
-      <c r="O144" s="13"/>
-    </row>
-    <row r="145" spans="1:20">
+      <c r="P144" s="13"/>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -5655,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>8</v>
@@ -5666,9 +5830,9 @@
       <c r="L145" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O145" s="13"/>
-    </row>
-    <row r="146" spans="1:20">
+      <c r="P145" s="13"/>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -5689,9 +5853,9 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="O146" s="13"/>
-    </row>
-    <row r="147" spans="1:20">
+      <c r="P146" s="13"/>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -5712,9 +5876,9 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="O147" s="13"/>
-    </row>
-    <row r="148" spans="1:20">
+      <c r="P147" s="13"/>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -5736,7 +5900,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:21">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -5748,7 +5912,7 @@
         <v>180</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -5758,7 +5922,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:21">
       <c r="A150" s="6" t="s">
         <v>171</v>
       </c>
@@ -5780,7 +5944,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:21">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -5802,15 +5966,15 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="155" spans="1:20">
-      <c r="A155" s="47" t="s">
+    <row r="155" spans="1:21">
+      <c r="A155" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="47"/>
-      <c r="C155" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="D155" s="47"/>
+      <c r="B155" s="64"/>
+      <c r="C155" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155" s="64"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -5820,7 +5984,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:21">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -5846,7 +6010,7 @@
         <v>7</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>8</v>
@@ -5858,15 +6022,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:21">
       <c r="A157" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D157" s="30" t="s">
         <v>176</v>
@@ -5875,7 +6039,7 @@
         <v>20</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -5884,12 +6048,12 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:21">
       <c r="A158" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="6" t="s">
@@ -5906,47 +6070,47 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:20" s="13" customFormat="1">
+    <row r="159" spans="1:21" s="13" customFormat="1">
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
-      <c r="O159"/>
       <c r="P159"/>
       <c r="Q159"/>
       <c r="R159"/>
       <c r="S159"/>
       <c r="T159"/>
-    </row>
-    <row r="160" spans="1:20" s="13" customFormat="1">
+      <c r="U159"/>
+    </row>
+    <row r="160" spans="1:21" s="13" customFormat="1">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="E160" s="28"/>
-      <c r="O160"/>
       <c r="P160"/>
       <c r="Q160"/>
       <c r="R160"/>
       <c r="S160"/>
       <c r="T160"/>
-    </row>
-    <row r="161" spans="1:20" s="13" customFormat="1">
+      <c r="U160"/>
+    </row>
+    <row r="161" spans="1:21" s="13" customFormat="1">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="E161" s="28"/>
-      <c r="O161"/>
       <c r="P161"/>
       <c r="Q161"/>
       <c r="R161"/>
       <c r="S161"/>
       <c r="T161"/>
-    </row>
-    <row r="162" spans="1:20">
-      <c r="A162" s="47" t="s">
+      <c r="U161"/>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="47"/>
-      <c r="C162" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="D162" s="47"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="D162" s="64"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -5955,9 +6119,9 @@
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
-      <c r="T162" s="13"/>
-    </row>
-    <row r="163" spans="1:20">
+      <c r="U162" s="13"/>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="2" t="s">
         <v>25</v>
       </c>
@@ -5983,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>8</v>
@@ -5994,17 +6158,17 @@
       <c r="L163" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T163" s="13"/>
-    </row>
-    <row r="164" spans="1:20">
+      <c r="U163" s="13"/>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>176</v>
@@ -6019,18 +6183,18 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="O164" s="13"/>
-      <c r="T164" s="13"/>
-    </row>
-    <row r="165" spans="1:20">
+      <c r="P164" s="13"/>
+      <c r="U164" s="13"/>
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>176</v>
@@ -6045,39 +6209,39 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="O165" s="13"/>
-    </row>
-    <row r="166" spans="1:20">
-      <c r="O166" s="13"/>
-    </row>
-    <row r="167" spans="1:20">
-      <c r="P167" s="13"/>
+      <c r="P165" s="13"/>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="P166" s="13"/>
+    </row>
+    <row r="167" spans="1:21">
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
-    </row>
-    <row r="168" spans="1:20">
-      <c r="P168" s="13"/>
+      <c r="T167" s="13"/>
+    </row>
+    <row r="168" spans="1:21">
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
-    </row>
-    <row r="169" spans="1:20">
-      <c r="P169" s="13"/>
+      <c r="T168" s="13"/>
+    </row>
+    <row r="169" spans="1:21">
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
+      <c r="T169" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="O13:R15"/>
-    <mergeCell ref="O38:R39"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A20:B20"/>
@@ -6088,8 +6252,8 @@
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="C162:D162"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="R50:S50"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A115:B115"/>
@@ -6109,12 +6273,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="E1" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="H1" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="77"/>
+      <c r="K1" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="77"/>
+      <c r="N1" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="O1" s="78"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="E2" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="H2" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="K2" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" s="76"/>
+      <c r="N2" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="76"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="E11" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="H11" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="77"/>
+      <c r="K11" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" s="77"/>
+      <c r="N11" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="O11" s="78"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.2" customHeight="1">
+      <c r="B12" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="E12" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="H12" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="K12" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="N12" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="E21" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="78"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="E22" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="76"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="E22:F28"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L8"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F18"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F8"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6155,14 +6614,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -6335,14 +6794,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6511,14 +6970,14 @@
       <c r="J25" s="2"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -6639,14 +7098,14 @@
       <c r="J36" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -6815,14 +7274,14 @@
       <c r="J50" s="2"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="47"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -6943,14 +7402,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="47"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7071,14 +7530,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="47"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -7247,14 +7706,14 @@
       <c r="J86" s="2"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="47"/>
+      <c r="D91" s="64"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7439,14 +7898,14 @@
       <c r="J101" s="2"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="47"/>
-      <c r="C106" s="47" t="s">
+      <c r="B106" s="64"/>
+      <c r="C106" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="47"/>
+      <c r="D106" s="64"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -7519,14 +7978,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="47"/>
-      <c r="C114" s="47" t="s">
+      <c r="B114" s="64"/>
+      <c r="C114" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="47"/>
+      <c r="D114" s="64"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -7599,14 +8058,14 @@
       <c r="J117" s="2"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47" t="s">
+      <c r="B122" s="64"/>
+      <c r="C122" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="47"/>
+      <c r="D122" s="64"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>

--- a/DataBase/資料庫建立檢表.xlsx
+++ b/DataBase/資料庫建立檢表.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11604" yWindow="-12" windowWidth="11472" windowHeight="9540"/>
+    <workbookView xWindow="11610" yWindow="-15" windowWidth="11475" windowHeight="9540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
     <sheet name="簡釋" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="備用原檔" sheetId="1" r:id="rId4"/>
+    <sheet name="主要檢表 wireframe對照" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="381">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,15 +1356,305 @@
 資料庫儲存每張預約訂單的編號、需要租用的商品等待序號、商品狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>對照wireframe檔案</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊Y、會員資料修改N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞是居住還是通訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在購買訂單紀錄顯示</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在購買訂單紀錄顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定單記錄沒有顯示出出貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道與編號的差別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結帳專區Y訂單紀錄N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際到貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否區分 折扣碼折扣或是活動折扣兩者是否疊加或是符合活動的商品才可使用折扣碼 看折扣的條件使用方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道PROITEMID 、PRODID差別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品敘述需要進入資料庫嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否建立目前可借設備之紀錄 ex: 可借、不可借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(預約資料)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>資料資料reserve</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約訂單成立之時?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備敘述需要進入資料庫嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計到貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>預約狀態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(該商品預約狀態)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可租借的表示為0?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容長度太短應該要500字以內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號還是編號?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>訂單生成時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(表單生成時間)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我分了五類(RENT、BUY、CASH、PAYMENT、OTHER)看要怎麼用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳檔案的紀錄(請大家討論檔案格式只限圖片還是要加影片)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應該要跟五類一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服人員回應時間(此時間是否直接視為問題解決?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否建立評價可信度(新增按讚倒讚按鈕來統計此評價的可信度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題狀態(提出中、處理中(太麻煩了可省略)、已解決)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容字數太少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評價刊登日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>種類名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(商品名稱)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看能不能跟COMMENT合併</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評價資料 discount(折價券管理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看要不要簡化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否限制折扣碼使用次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否限制折扣碼使用日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否新增這組折扣碼現在是否開放使用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應為單日租借金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小組討論過為了方便租借數量應該強制設為1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租賃金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應該要和單項總額擇一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單日租賃金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件時段(WIREFRAME有看要不要砍掉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立目前被借走設備之預約序號之紀錄?(才可知道還差幾號才輪到我來計算等待人數)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1514,7 +1805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1630,6 +1921,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1640,7 +1968,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1836,13 +2164,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,6 +2191,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,7 +2215,79 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1885,6 +2297,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1931,7 +2351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1963,9 +2383,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1997,6 +2435,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2172,46 +2628,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Y169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2224,7 +2680,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2262,7 +2718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2290,7 +2746,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -2319,7 +2775,7 @@
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +2799,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -2367,7 +2823,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -2391,7 +2847,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -2415,7 +2871,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="56"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2439,11 +2895,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -2473,7 +2929,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -2503,7 +2959,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -2531,7 +2987,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -2552,17 +3008,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="68" t="s">
+      <c r="P13" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>232</v>
       </c>
@@ -2581,15 +3037,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>295</v>
       </c>
@@ -2610,15 +3066,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
@@ -2649,7 +3105,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -2670,7 +3126,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -2691,7 +3147,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P19" s="50" t="s">
         <v>88</v>
       </c>
@@ -2701,20 +3157,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2737,7 +3193,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +3245,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
@@ -2827,7 +3283,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -2867,7 +3323,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2894,7 +3350,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2929,7 +3385,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -2959,12 +3415,12 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -2999,7 +3455,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3488,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3065,7 +3521,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -3094,7 +3550,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3123,7 +3579,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -3156,7 +3612,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3188,12 +3644,12 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3230,7 +3686,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:25" s="19" customFormat="1">
+    <row r="35" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3267,7 +3723,7 @@
       <c r="U35" s="40"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
@@ -3298,7 +3754,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -3327,27 +3783,27 @@
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:25">
-      <c r="P38" s="72" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P38" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:25">
-      <c r="P39" s="72"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P39" s="71"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:25" ht="24.6">
+    <row r="40" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="P40" s="57" t="s">
         <v>280</v>
       </c>
@@ -3361,26 +3817,26 @@
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P41" s="50"/>
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="64" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64" t="s">
+      <c r="B42" s="75"/>
+      <c r="C42" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3400,7 +3856,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3456,7 +3912,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
@@ -3498,7 +3954,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -3545,7 +4001,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3586,7 +4042,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>257</v>
       </c>
@@ -3628,7 +4084,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="49"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -3660,7 +4116,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" ht="24.6">
+    <row r="49" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -3691,7 +4147,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -3716,13 +4172,13 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="66"/>
-      <c r="S50" s="66"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -3751,7 +4207,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -3790,7 +4246,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -3829,7 +4285,7 @@
       </c>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -3868,7 +4324,7 @@
       </c>
       <c r="V54" s="49"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -3905,7 +4361,7 @@
       </c>
       <c r="V55" s="49"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3944,7 +4400,7 @@
       </c>
       <c r="V56" s="49"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -3987,7 +4443,7 @@
       </c>
       <c r="V57" s="49"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P58" s="50"/>
       <c r="Q58" s="38" t="s">
         <v>270</v>
@@ -4006,7 +4462,7 @@
       </c>
       <c r="V58" s="49"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P59" s="50"/>
       <c r="Q59" s="38" t="s">
         <v>270</v>
@@ -4025,7 +4481,7 @@
       </c>
       <c r="V59" s="49"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P60" s="50"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
@@ -4034,7 +4490,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="49"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P61" s="61"/>
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
@@ -4043,15 +4499,15 @@
       <c r="U61" s="62"/>
       <c r="V61" s="63"/>
     </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64" t="s">
+      <c r="B62" s="75"/>
+      <c r="C62" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="64"/>
+      <c r="D62" s="75"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4069,7 +4525,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -4110,7 +4566,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>269</v>
       </c>
@@ -4137,7 +4593,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4169,7 +4625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4195,7 +4651,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>257</v>
       </c>
@@ -4222,7 +4678,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -4247,7 +4703,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>225</v>
       </c>
@@ -4274,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
@@ -4296,7 +4752,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>251</v>
       </c>
@@ -4318,7 +4774,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -4341,7 +4797,7 @@
       <c r="L72" s="2"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4363,7 +4819,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:21" s="13" customFormat="1">
+    <row r="74" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -4391,7 +4847,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1">
+    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -4417,7 +4873,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" s="13" customFormat="1">
+    <row r="76" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -4443,7 +4899,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" s="13" customFormat="1">
+    <row r="77" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
@@ -4470,7 +4926,7 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:21" s="13" customFormat="1">
+    <row r="78" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -4497,7 +4953,7 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -4519,7 +4975,7 @@
       <c r="P79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -4543,7 +4999,7 @@
       <c r="P80" s="13"/>
       <c r="U80" s="13"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -4571,41 +5027,41 @@
       <c r="P81" s="13"/>
       <c r="U81" s="13"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:21" s="13" customFormat="1">
-      <c r="A86" s="64" t="s">
+    <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64" t="s">
+      <c r="B86" s="75"/>
+      <c r="C86" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="64"/>
+      <c r="D86" s="75"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -4617,7 +5073,7 @@
       <c r="P86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
@@ -4655,7 +5111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>263</v>
       </c>
@@ -4682,7 +5138,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
@@ -4709,7 +5165,7 @@
       <c r="L89" s="2"/>
       <c r="U89" s="13"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -4731,7 +5187,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -4754,7 +5210,7 @@
       <c r="L91" s="2"/>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -4774,7 +5230,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
@@ -4796,7 +5252,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
@@ -4822,7 +5278,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>257</v>
       </c>
@@ -4847,7 +5303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>295</v>
       </c>
@@ -4869,15 +5325,15 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="64" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="64"/>
-      <c r="C100" s="64" t="s">
+      <c r="B100" s="75"/>
+      <c r="C100" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="64"/>
+      <c r="D100" s="75"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -4887,7 +5343,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -4925,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
@@ -4952,7 +5408,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -4981,7 +5437,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
@@ -5005,7 +5461,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -5027,7 +5483,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -5049,7 +5505,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -5069,7 +5525,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
@@ -5091,7 +5547,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
@@ -5115,7 +5571,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>257</v>
       </c>
@@ -5137,7 +5593,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="45" t="s">
         <v>295</v>
       </c>
@@ -5159,15 +5615,15 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="115" spans="1:21">
-      <c r="A115" s="64" t="s">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64" t="s">
+      <c r="B115" s="75"/>
+      <c r="C115" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="64"/>
+      <c r="D115" s="75"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5177,7 +5633,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5215,7 +5671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>269</v>
       </c>
@@ -5245,7 +5701,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -5277,7 +5733,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1">
+    <row r="119" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>217</v>
       </c>
@@ -5307,7 +5763,7 @@
       <c r="T119"/>
       <c r="U119"/>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1">
+    <row r="120" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>263</v>
       </c>
@@ -5340,7 +5796,7 @@
       <c r="T120"/>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5821,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>225</v>
       </c>
@@ -5393,7 +5849,7 @@
       </c>
       <c r="U122" s="19"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
@@ -5416,7 +5872,7 @@
       <c r="L123" s="2"/>
       <c r="U123" s="19"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>164</v>
       </c>
@@ -5441,7 +5897,7 @@
       <c r="L124" s="2"/>
       <c r="P124" s="19"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
@@ -5462,7 +5918,7 @@
       <c r="L125" s="2"/>
       <c r="P125" s="19"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
@@ -5484,7 +5940,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -5514,21 +5970,21 @@
       <c r="S127" s="19"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="131" spans="1:16">
-      <c r="A131" s="64" t="s">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64" t="s">
+      <c r="B131" s="75"/>
+      <c r="C131" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="64"/>
+      <c r="D131" s="75"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -5538,7 +5994,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -5576,7 +6032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>86</v>
       </c>
@@ -5602,7 +6058,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>269</v>
       </c>
@@ -5626,7 +6082,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
@@ -5652,7 +6108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
@@ -5674,7 +6130,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -5696,7 +6152,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -5721,7 +6177,7 @@
       <c r="L138" s="2"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>96</v>
       </c>
@@ -5744,7 +6200,7 @@
       <c r="L139" s="2"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>235</v>
       </c>
@@ -5765,24 +6221,24 @@
       <c r="L140" s="2"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P143" s="13"/>
     </row>
-    <row r="144" spans="1:16">
-      <c r="A144" s="64" t="s">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64" t="s">
+      <c r="B144" s="75"/>
+      <c r="C144" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="64"/>
+      <c r="D144" s="75"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -5793,7 +6249,7 @@
       <c r="L144" s="9"/>
       <c r="P144" s="13"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -5832,7 +6288,7 @@
       </c>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -5855,7 +6311,7 @@
       <c r="L146" s="2"/>
       <c r="P146" s="13"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -5878,7 +6334,7 @@
       <c r="L147" s="2"/>
       <c r="P147" s="13"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -5900,7 +6356,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -5922,7 +6378,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>171</v>
       </c>
@@ -5944,7 +6400,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -5966,15 +6422,15 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="155" spans="1:21">
-      <c r="A155" s="64" t="s">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="64"/>
-      <c r="C155" s="64" t="s">
+      <c r="B155" s="75"/>
+      <c r="C155" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="64"/>
+      <c r="D155" s="75"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -5984,7 +6440,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -6022,7 +6478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
         <v>257</v>
       </c>
@@ -6048,7 +6504,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>239</v>
       </c>
@@ -6070,7 +6526,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:21" s="13" customFormat="1">
+    <row r="159" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
       <c r="P159"/>
@@ -6080,7 +6536,7 @@
       <c r="T159"/>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" s="13" customFormat="1">
+    <row r="160" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="E160" s="28"/>
@@ -6091,7 +6547,7 @@
       <c r="T160"/>
       <c r="U160"/>
     </row>
-    <row r="161" spans="1:21" s="13" customFormat="1">
+    <row r="161" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="E161" s="28"/>
@@ -6102,15 +6558,15 @@
       <c r="T161"/>
       <c r="U161"/>
     </row>
-    <row r="162" spans="1:21">
-      <c r="A162" s="64" t="s">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="64"/>
-      <c r="C162" s="64" t="s">
+      <c r="B162" s="75"/>
+      <c r="C162" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="64"/>
+      <c r="D162" s="75"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6121,7 +6577,7 @@
       <c r="L162" s="9"/>
       <c r="U162" s="13"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>25</v>
       </c>
@@ -6160,7 +6616,7 @@
       </c>
       <c r="U163" s="13"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>244</v>
       </c>
@@ -6186,7 +6642,7 @@
       <c r="P164" s="13"/>
       <c r="U164" s="13"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>242</v>
       </c>
@@ -6211,22 +6667,22 @@
       <c r="L165" s="2"/>
       <c r="P165" s="13"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P166" s="13"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
@@ -6234,20 +6690,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6264,6 +6706,20 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6272,16 +6728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="78" t="s">
         <v>301</v>
       </c>
@@ -6290,114 +6746,114 @@
         <v>303</v>
       </c>
       <c r="F1" s="78"/>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="K1" s="77" t="s">
+      <c r="I1" s="81"/>
+      <c r="K1" s="81" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="77"/>
+      <c r="L1" s="81"/>
       <c r="N1" s="78" t="s">
         <v>312</v>
       </c>
       <c r="O1" s="78"/>
     </row>
-    <row r="2" spans="2:15">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="80"/>
+      <c r="E2" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="H2" s="75" t="s">
+      <c r="F2" s="80"/>
+      <c r="H2" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="K2" s="75" t="s">
+      <c r="I2" s="80"/>
+      <c r="K2" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="N2" s="75" t="s">
+      <c r="L2" s="80"/>
+      <c r="N2" s="79" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="76"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="O2" s="80"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="78" t="s">
         <v>310</v>
       </c>
@@ -6406,165 +6862,156 @@
         <v>315</v>
       </c>
       <c r="F11" s="78"/>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="K11" s="77" t="s">
+      <c r="I11" s="81"/>
+      <c r="K11" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="77"/>
+      <c r="L11" s="81"/>
       <c r="N11" s="78" t="s">
         <v>311</v>
       </c>
       <c r="O11" s="78"/>
     </row>
-    <row r="12" spans="2:15" ht="16.2" customHeight="1">
-      <c r="B12" s="75" t="s">
+    <row r="12" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="E12" s="75" t="s">
+      <c r="C12" s="80"/>
+      <c r="E12" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="H12" s="75" t="s">
+      <c r="F12" s="80"/>
+      <c r="H12" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="K12" s="75" t="s">
+      <c r="I12" s="80"/>
+      <c r="K12" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="N12" s="75" t="s">
+      <c r="L12" s="80"/>
+      <c r="N12" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E21" s="78" t="s">
         <v>313</v>
       </c>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="2:15">
-      <c r="E22" s="75" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="76"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
+      <c r="F22" s="80"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L18"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F18"/>
     <mergeCell ref="E1:F1"/>
@@ -6573,6 +7020,15 @@
     <mergeCell ref="H2:I8"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6581,12 +7037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6595,33 +7051,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -6629,7 +7085,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6661,7 +7117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +7137,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6695,7 +7151,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6709,7 +7165,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -6723,7 +7179,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -6737,7 +7193,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>100</v>
       </c>
@@ -6751,7 +7207,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -6765,7 +7221,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -6779,7 +7235,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -6793,15 +7249,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6809,7 +7265,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -6841,7 +7297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -6857,7 +7313,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -6873,7 +7329,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -6889,7 +7345,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -6905,7 +7361,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6921,7 +7377,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6937,7 +7393,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6953,7 +7409,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6969,15 +7425,15 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="64" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -6985,7 +7441,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -7017,7 +7473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7033,7 +7489,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -7049,7 +7505,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -7065,7 +7521,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -7081,7 +7537,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -7097,15 +7553,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="64" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7113,7 +7569,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -7145,7 +7601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -7161,7 +7617,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7177,7 +7633,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
@@ -7193,7 +7649,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -7209,7 +7665,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -7225,7 +7681,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -7241,7 +7697,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -7257,7 +7713,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -7273,15 +7729,15 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="64" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64" t="s">
+      <c r="B55" s="75"/>
+      <c r="C55" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -7289,7 +7745,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -7321,7 +7777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
@@ -7337,7 +7793,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>39</v>
       </c>
@@ -7353,7 +7809,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -7369,7 +7825,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -7385,7 +7841,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
@@ -7401,15 +7857,15 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="64" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64" t="s">
+      <c r="B66" s="75"/>
+      <c r="C66" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="64"/>
+      <c r="D66" s="75"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7417,7 +7873,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -7449,7 +7905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -7465,7 +7921,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -7481,7 +7937,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -7497,7 +7953,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
@@ -7513,7 +7969,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -7529,15 +7985,15 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="64" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64" t="s">
+      <c r="B77" s="75"/>
+      <c r="C77" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="64"/>
+      <c r="D77" s="75"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -7545,7 +8001,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -7577,7 +8033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
@@ -7593,7 +8049,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>72</v>
       </c>
@@ -7609,7 +8065,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -7625,7 +8081,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -7641,7 +8097,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -7657,7 +8113,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -7673,7 +8129,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -7689,7 +8145,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -7705,15 +8161,15 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="64" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64" t="s">
+      <c r="B91" s="75"/>
+      <c r="C91" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="64"/>
+      <c r="D91" s="75"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7721,7 +8177,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -7753,7 +8209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>70</v>
       </c>
@@ -7769,7 +8225,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
@@ -7785,7 +8241,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -7801,7 +8257,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>75</v>
       </c>
@@ -7817,7 +8273,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -7833,7 +8289,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -7849,7 +8305,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -7865,7 +8321,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>79</v>
       </c>
@@ -7881,7 +8337,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>55</v>
       </c>
@@ -7897,15 +8353,15 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="64" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64" t="s">
+      <c r="B106" s="75"/>
+      <c r="C106" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="64"/>
+      <c r="D106" s="75"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -7913,7 +8369,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>25</v>
       </c>
@@ -7945,7 +8401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -7961,7 +8417,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>82</v>
       </c>
@@ -7977,15 +8433,15 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="64" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64" t="s">
+      <c r="B114" s="75"/>
+      <c r="C114" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="64"/>
+      <c r="D114" s="75"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -7993,7 +8449,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
@@ -8025,7 +8481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
@@ -8041,7 +8497,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>82</v>
       </c>
@@ -8057,15 +8513,15 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="64" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64" t="s">
+      <c r="B122" s="75"/>
+      <c r="C122" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="64"/>
+      <c r="D122" s="75"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8073,7 +8529,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
@@ -8105,7 +8561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
@@ -8121,7 +8577,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -8137,7 +8593,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -8153,7 +8609,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -8169,7 +8625,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -8185,7 +8641,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
@@ -8203,18 +8659,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8225,6 +8669,4699 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AA180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="23.875" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.5" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="85"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="Q1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="2">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="66"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="66"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="66"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="66"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="66"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="66"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="2">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="66"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="2">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="2">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="R13" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="48"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="49"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="49"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="R16" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="49"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="49"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="49"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="49"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="R20" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="T20" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="49"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>260</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="T21" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="49"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="91"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="31">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="4"/>
+      <c r="Q22" t="s">
+        <v>259</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="T22" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="49"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="Q23" t="s">
+        <v>261</v>
+      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="49"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="49"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="2">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="S25" s="13"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="49"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="R26" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="T26" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="49"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="2">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="R27" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="T27" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="49"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="2">
+        <v>64</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="T28" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="49"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="2">
+        <v>64</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="T29" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="49"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="2">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="49"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="49"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="R32" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="49"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="R33" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="T33" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="49"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="R34" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="T34" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="49"/>
+    </row>
+    <row r="35" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="22">
+        <v>20</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="T35" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="55"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="T36" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="49"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="2">
+        <v>64</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="49"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R38" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="49"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R39" s="71"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="49"/>
+    </row>
+    <row r="40" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R40" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R41" s="50"/>
+      <c r="S41" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="49"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="75"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="85"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="Q42" t="s">
+        <v>260</v>
+      </c>
+      <c r="R42" s="50"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="49"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>259</v>
+      </c>
+      <c r="R43" s="50"/>
+      <c r="S43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="W43" s="13"/>
+      <c r="X43" s="49"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="91"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="31">
+        <v>20</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="4"/>
+      <c r="Q44" t="s">
+        <v>261</v>
+      </c>
+      <c r="R44" s="50"/>
+      <c r="S44" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V44" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="W44" s="13"/>
+      <c r="X44" s="49"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="2">
+        <v>11</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R45" s="50"/>
+      <c r="S45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="T45" s="43">
+        <v>10001</v>
+      </c>
+      <c r="U45" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W45" s="13"/>
+      <c r="X45" s="49"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="2">
+        <v>11</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="T46" s="43">
+        <v>20002</v>
+      </c>
+      <c r="U46" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W46" s="13"/>
+      <c r="X46" s="49"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="30">
+        <v>20</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="Q47" t="s">
+        <v>262</v>
+      </c>
+      <c r="R47" s="50"/>
+      <c r="S47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T47" s="43">
+        <v>30003</v>
+      </c>
+      <c r="U47" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="W47" s="13"/>
+      <c r="X47" s="49"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="6">
+        <v>20</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="Q48" s="32">
+        <v>100001</v>
+      </c>
+      <c r="R48" s="65"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="49"/>
+    </row>
+    <row r="49" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="R49" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="60"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="49"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="49"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W52" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X52" s="49"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W53" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="X53" s="49"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T54" s="43">
+        <v>10001</v>
+      </c>
+      <c r="U54" s="10">
+        <v>1</v>
+      </c>
+      <c r="V54" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X54" s="49"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T55" s="43">
+        <v>10001</v>
+      </c>
+      <c r="U55" s="10">
+        <v>2</v>
+      </c>
+      <c r="V55" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="X55" s="49"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="2">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T56" s="43">
+        <v>20002</v>
+      </c>
+      <c r="U56" s="10">
+        <v>1</v>
+      </c>
+      <c r="V56" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X56" s="49"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="2">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="R57" s="50"/>
+      <c r="S57" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T57" s="43">
+        <v>20002</v>
+      </c>
+      <c r="U57" s="10">
+        <v>2</v>
+      </c>
+      <c r="V57" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X57" s="49"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="100" t="s">
+        <v>345</v>
+      </c>
+      <c r="R58" s="50"/>
+      <c r="S58" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T58" s="43">
+        <v>30003</v>
+      </c>
+      <c r="U58" s="10">
+        <v>1</v>
+      </c>
+      <c r="V58" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="X58" s="49"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="R59" s="50"/>
+      <c r="S59" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T59" s="43">
+        <v>30003</v>
+      </c>
+      <c r="U59" s="10">
+        <v>2</v>
+      </c>
+      <c r="V59" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="X59" s="49"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="R60" s="50"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="49"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="R61" s="61"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="63"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="75"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="85"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="Q62" t="s">
+        <v>260</v>
+      </c>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="91"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="31">
+        <v>20</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="5"/>
+      <c r="Q64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="86"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="86"/>
+      <c r="D66" s="101" t="s">
+        <v>346</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G66" s="2">
+        <v>11</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="92"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="30">
+        <v>20</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="Q67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="87"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="6">
+        <v>20</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="Q68" s="32">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="92"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="30">
+        <v>20</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="Q69" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="86"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="86"/>
+      <c r="D71" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="86"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="T72" s="20"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="86"/>
+      <c r="D73" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="86"/>
+      <c r="D74" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+    </row>
+    <row r="75" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="86"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+    </row>
+    <row r="76" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="86"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+    </row>
+    <row r="77" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="87"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+    </row>
+    <row r="78" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="87"/>
+      <c r="D78" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="86"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="R79" s="13"/>
+      <c r="W79" s="13"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="86"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" s="2">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="R80" s="13"/>
+      <c r="W80" s="13"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="86"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="2">
+        <v>11</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="R81" s="13"/>
+      <c r="W81" s="13"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="100" t="s">
+        <v>345</v>
+      </c>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+    </row>
+    <row r="86" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="75"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="F86" s="85"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="R86"/>
+      <c r="W86"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="93"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M87" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="93"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G88" s="6">
+        <v>20</v>
+      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="44"/>
+      <c r="Q88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="87"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89" s="6">
+        <v>20</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="W89" s="13"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="87"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G90" s="6">
+        <v>45</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="87"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="R91" s="13"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="87"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="87"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G93" s="2">
+        <v>30</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="87"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="2">
+        <v>11</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="91"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G95" s="30">
+        <v>20</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="Q95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" s="87"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="6">
+        <v>20</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="75"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="85"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="93"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" s="6">
+        <v>20</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="44"/>
+      <c r="Q102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="86"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G103" s="6">
+        <v>20</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="Q103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="86"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G104" s="6">
+        <v>20</v>
+      </c>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="86"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="86"/>
+      <c r="D106" s="101" t="s">
+        <v>377</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="87"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="87"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" s="2">
+        <v>30</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="86"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G109" s="2">
+        <v>11</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="91"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G110" s="30">
+        <v>20</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C111" s="87"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G111" s="6">
+        <v>20</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" s="100" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="75"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="F115" s="85"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O116" s="31"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="91"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G117" s="31">
+        <v>20</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="86"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G118" s="2">
+        <v>10</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="86"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G119" s="1">
+        <v>11</v>
+      </c>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="1"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+    </row>
+    <row r="120" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="94"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G120" s="30">
+        <v>20</v>
+      </c>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="1"/>
+      <c r="Q120" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="87"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G121" s="6">
+        <v>20</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="1"/>
+      <c r="Q121" s="32">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="92"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="30">
+        <v>20</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="1"/>
+      <c r="Q122" t="s">
+        <v>268</v>
+      </c>
+      <c r="W122" s="19"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="87"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="1"/>
+      <c r="W123" s="19"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="87"/>
+      <c r="D124" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G124" s="2">
+        <v>10</v>
+      </c>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="1"/>
+      <c r="R124" s="19"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" s="95"/>
+      <c r="D125" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="1"/>
+      <c r="R125" s="19"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" s="86"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G126" s="2">
+        <v>20</v>
+      </c>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="86"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G127" s="2">
+        <v>11</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="O127" s="1"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
+      <c r="V127" s="19"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="O128" s="1"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="19"/>
+      <c r="U128" s="19"/>
+      <c r="V128" s="19"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="98" t="s">
+        <v>380</v>
+      </c>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="75"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F142" s="85"/>
+      <c r="G142" s="64"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O143" s="98"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" s="86"/>
+      <c r="D144" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G144" s="2">
+        <v>11</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="O144" s="99"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C145" s="91"/>
+      <c r="D145" s="105" t="s">
+        <v>360</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F145" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G145" s="31">
+        <v>20</v>
+      </c>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="22"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="86"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G146" s="2">
+        <v>11</v>
+      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="86"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G147" s="2">
+        <v>64</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="86"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G148" s="2">
+        <v>20</v>
+      </c>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="86"/>
+      <c r="D149" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G149" s="2">
+        <v>20</v>
+      </c>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="Q149" s="13"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="102" t="s">
+        <v>355</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G150" s="2">
+        <v>64</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" s="86"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="Q151" s="13"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" s="100" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q152" s="13"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q153" s="13"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="R154" s="13"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="75"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F155" s="85"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="R155" s="13"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R156" s="13"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="86"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G157" s="6">
+        <v>20</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="R157" s="13"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C158" s="86"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="R158" s="13"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" s="95"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G159" s="2">
+        <v>11</v>
+      </c>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="86"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="87"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" s="86"/>
+      <c r="D162" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G162" s="2">
+        <v>64</v>
+      </c>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A163" s="100" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="100" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="75"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="F166" s="85"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K167" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A168" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="92"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G168" s="30">
+        <v>20</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C169" s="86"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G169" s="6">
+        <v>20</v>
+      </c>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+    </row>
+    <row r="170" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="B170" s="27"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="27"/>
+      <c r="R170"/>
+      <c r="S170"/>
+      <c r="T170"/>
+      <c r="U170"/>
+      <c r="V170"/>
+      <c r="W170"/>
+    </row>
+    <row r="171" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="97"/>
+      <c r="D171" s="26"/>
+      <c r="G171" s="28"/>
+      <c r="R171"/>
+      <c r="S171"/>
+      <c r="T171"/>
+      <c r="U171"/>
+      <c r="V171"/>
+      <c r="W171"/>
+    </row>
+    <row r="172" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="89"/>
+      <c r="D172" s="29"/>
+      <c r="G172" s="28"/>
+      <c r="R172"/>
+      <c r="S172"/>
+      <c r="T172"/>
+      <c r="U172"/>
+      <c r="V172"/>
+      <c r="W172"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="75"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="64"/>
+      <c r="E173" s="106" t="s">
+        <v>368</v>
+      </c>
+      <c r="F173" s="85"/>
+      <c r="G173" s="64"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="W173" s="13"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K174" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W174" s="13"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C175" s="86"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G175" s="6">
+        <v>20</v>
+      </c>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="R175" s="13"/>
+      <c r="W175" s="13"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C176" s="86"/>
+      <c r="D176" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G176" s="6">
+        <v>20</v>
+      </c>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="R176" s="13"/>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A177" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="R177" s="13"/>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A178" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="S178" s="13"/>
+      <c r="T178" s="13"/>
+      <c r="U178" s="13"/>
+      <c r="V178" s="13"/>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A179" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="S179" s="13"/>
+      <c r="T179" s="13"/>
+      <c r="U179" s="13"/>
+      <c r="V179" s="13"/>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S180" s="13"/>
+      <c r="T180" s="13"/>
+      <c r="U180" s="13"/>
+      <c r="V180" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="R38:U39"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/資料庫建立檢表.xlsx
+++ b/DataBase/資料庫建立檢表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="383">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,10 +1627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>應該要和單項總額擇一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>單日租賃金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1644,6 +1640,18 @@
   </si>
   <si>
     <t>建立目前被借走設備之預約序號之紀錄?(才可知道還差幾號才輪到我來計算等待人數)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租賃頁面N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約成功N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2170,63 +2178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2287,7 +2238,64 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2660,14 +2668,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2895,8 +2903,8 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3008,12 +3016,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="67" t="s">
+      <c r="P13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
@@ -3037,10 +3045,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
@@ -3066,10 +3074,10 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
@@ -3157,20 +3165,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="77" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3415,8 +3423,8 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
@@ -3644,8 +3652,8 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
@@ -3784,21 +3792,21 @@
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P38" s="71" t="s">
+      <c r="P38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P39" s="71"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
@@ -3822,21 +3830,21 @@
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4172,8 +4180,8 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
@@ -4500,14 +4508,14 @@
       <c r="V61" s="63"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="75"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -5054,14 +5062,14 @@
       <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="75"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5326,14 +5334,14 @@
       <c r="L96" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75" t="s">
+      <c r="B100" s="87"/>
+      <c r="C100" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="75"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5616,14 +5624,14 @@
       <c r="L111" s="2"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="75"/>
-      <c r="C115" s="75" t="s">
+      <c r="B115" s="87"/>
+      <c r="C115" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="75"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5977,14 +5985,14 @@
       <c r="T128" s="19"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="75" t="s">
+      <c r="A131" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75" t="s">
+      <c r="B131" s="87"/>
+      <c r="C131" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="75"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6231,14 +6239,14 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="75" t="s">
+      <c r="A144" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="75"/>
-      <c r="C144" s="75" t="s">
+      <c r="B144" s="87"/>
+      <c r="C144" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="75"/>
+      <c r="D144" s="87"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6423,14 +6431,14 @@
       <c r="L151" s="2"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A155" s="75" t="s">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="75"/>
-      <c r="C155" s="75" t="s">
+      <c r="B155" s="87"/>
+      <c r="C155" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="75"/>
+      <c r="D155" s="87"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6559,14 +6567,14 @@
       <c r="U161"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162" s="75" t="s">
+      <c r="A162" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="75"/>
-      <c r="C162" s="75" t="s">
+      <c r="B162" s="87"/>
+      <c r="C162" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="75"/>
+      <c r="D162" s="87"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6690,6 +6698,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6706,20 +6728,6 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6738,275 +6746,283 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="H1" s="81" t="s">
+      <c r="F1" s="101"/>
+      <c r="H1" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="K1" s="81" t="s">
+      <c r="I1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="N1" s="78" t="s">
+      <c r="L1" s="100"/>
+      <c r="N1" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="78"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="E2" s="79" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="H2" s="79" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="K2" s="79" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="N2" s="79" t="s">
+      <c r="L2" s="99"/>
+      <c r="N2" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="80"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="E11" s="78" t="s">
+      <c r="C11" s="101"/>
+      <c r="E11" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="H11" s="81" t="s">
+      <c r="F11" s="101"/>
+      <c r="H11" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="K11" s="81" t="s">
+      <c r="I11" s="100"/>
+      <c r="K11" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="N11" s="78" t="s">
+      <c r="L11" s="100"/>
+      <c r="N11" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="78"/>
+      <c r="O11" s="101"/>
     </row>
     <row r="12" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="99"/>
+      <c r="E12" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="H12" s="79" t="s">
+      <c r="F12" s="99"/>
+      <c r="H12" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="K12" s="79" t="s">
+      <c r="I12" s="99"/>
+      <c r="K12" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="N12" s="79" t="s">
+      <c r="L12" s="99"/>
+      <c r="N12" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="78"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7021,14 +7037,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7070,14 +7078,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7250,14 +7258,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7426,14 +7434,14 @@
       <c r="J25" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7554,14 +7562,14 @@
       <c r="J36" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7730,14 +7738,14 @@
       <c r="J50" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -7858,14 +7866,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75" t="s">
+      <c r="B66" s="87"/>
+      <c r="C66" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="75"/>
+      <c r="D66" s="87"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7986,14 +7994,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="75"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8162,14 +8170,14 @@
       <c r="J86" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75" t="s">
+      <c r="B91" s="87"/>
+      <c r="C91" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="75"/>
+      <c r="D91" s="87"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8354,14 +8362,14 @@
       <c r="J101" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="75" t="s">
+      <c r="A106" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="75"/>
-      <c r="C106" s="75" t="s">
+      <c r="B106" s="87"/>
+      <c r="C106" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="75"/>
+      <c r="D106" s="87"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8434,14 +8442,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="75"/>
-      <c r="C114" s="75" t="s">
+      <c r="B114" s="87"/>
+      <c r="C114" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="75"/>
+      <c r="D114" s="87"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8514,14 +8522,14 @@
       <c r="J117" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="75" t="s">
+      <c r="A122" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75" t="s">
+      <c r="B122" s="87"/>
+      <c r="C122" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="75"/>
+      <c r="D122" s="87"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8659,6 +8667,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8669,18 +8689,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8696,13 +8704,13 @@
   <dimension ref="A1:AA180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="90" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="71" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="34.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -8723,20 +8731,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85"/>
+      <c r="F1" s="103"/>
       <c r="G1" s="64"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -8796,7 +8804,7 @@
       <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -8826,7 +8834,7 @@
       <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D4" s="1"/>
@@ -8859,10 +8867,10 @@
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="82" t="s">
         <v>327</v>
       </c>
       <c r="E5" s="2"/>
@@ -8889,7 +8897,7 @@
       <c r="B6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D6" s="1"/>
@@ -8917,7 +8925,7 @@
       <c r="B7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D7" s="1"/>
@@ -8945,7 +8953,7 @@
       <c r="B8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D8" s="1"/>
@@ -8973,7 +8981,7 @@
       <c r="B9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="1"/>
@@ -8994,8 +9002,8 @@
       <c r="R9" s="19"/>
       <c r="S9" s="34"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -9005,7 +9013,7 @@
       <c r="B10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="1"/>
@@ -9039,10 +9047,10 @@
       <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="82" t="s">
         <v>328</v>
       </c>
       <c r="E11" s="2"/>
@@ -9075,7 +9083,7 @@
       <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D12" s="1"/>
@@ -9107,7 +9115,7 @@
       <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D13" s="1"/>
@@ -9125,12 +9133,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="R13" s="67" t="s">
+      <c r="R13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="47"/>
       <c r="W13" s="47"/>
       <c r="X13" s="48"/>
@@ -9142,7 +9150,7 @@
       <c r="B14" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="68" t="s">
         <v>329</v>
       </c>
       <c r="D14" s="6"/>
@@ -9158,10 +9166,10 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
       <c r="X14" s="49"/>
@@ -9173,7 +9181,7 @@
       <c r="B15" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="69" t="s">
         <v>326</v>
       </c>
       <c r="D15" s="46"/>
@@ -9191,10 +9199,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="49"/>
@@ -9206,7 +9214,7 @@
       <c r="B16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="68" t="s">
         <v>325</v>
       </c>
       <c r="D16" s="6"/>
@@ -9237,7 +9245,7 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="89"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="29"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -9260,7 +9268,7 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="89"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="29"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -9290,26 +9298,26 @@
       <c r="T19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
       <c r="W19" s="13"/>
       <c r="X19" s="49"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="64"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -9393,7 +9401,7 @@
       <c r="B22" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
         <v>255</v>
@@ -9433,7 +9441,7 @@
       <c r="B23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D23" s="1"/>
@@ -9477,7 +9485,7 @@
       <c r="B24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D24" s="1"/>
@@ -9508,10 +9516,10 @@
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="82" t="s">
         <v>333</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -9549,10 +9557,10 @@
       <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>177</v>
@@ -9576,8 +9584,8 @@
       <c r="T26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
       <c r="W26" s="13"/>
       <c r="X26" s="49"/>
     </row>
@@ -9588,10 +9596,10 @@
       <c r="B27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E27" s="2"/>
@@ -9629,10 +9637,10 @@
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E28" s="2"/>
@@ -9668,10 +9676,10 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E29" s="2"/>
@@ -9707,10 +9715,10 @@
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E30" s="2"/>
@@ -9742,7 +9750,7 @@
       <c r="B31" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D31" s="6"/>
@@ -9775,7 +9783,7 @@
       <c r="B32" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="68" t="s">
         <v>335</v>
       </c>
       <c r="D32" s="6"/>
@@ -9812,7 +9820,7 @@
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="68" t="s">
         <v>326</v>
       </c>
       <c r="D33" s="6"/>
@@ -9841,8 +9849,8 @@
       <c r="T33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
       <c r="W33" s="13"/>
       <c r="X33" s="49"/>
     </row>
@@ -9853,7 +9861,7 @@
       <c r="B34" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="68" t="s">
         <v>336</v>
       </c>
       <c r="D34" s="6"/>
@@ -9894,7 +9902,7 @@
       <c r="B35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D35" s="1"/>
@@ -9935,10 +9943,10 @@
       <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="103" t="s">
+      <c r="D36" s="84" t="s">
         <v>337</v>
       </c>
       <c r="E36" s="2"/>
@@ -9972,10 +9980,10 @@
       <c r="B37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E37" s="2"/>
@@ -10001,21 +10009,21 @@
       <c r="X37" s="49"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R38" s="71" t="s">
+      <c r="R38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="49"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R39" s="71"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="49"/>
@@ -10039,23 +10047,23 @@
       <c r="S41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="49"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="64"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -10140,7 +10148,7 @@
       <c r="B44" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31" t="s">
         <v>255</v>
@@ -10184,7 +10192,7 @@
       <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="67" t="s">
         <v>338</v>
       </c>
       <c r="D45" s="1"/>
@@ -10235,10 +10243,10 @@
       <c r="B46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="82" t="s">
         <v>340</v>
       </c>
       <c r="E46" s="2"/>
@@ -10282,7 +10290,7 @@
       <c r="B47" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
         <v>256</v>
@@ -10326,7 +10334,7 @@
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="68" t="s">
         <v>326</v>
       </c>
       <c r="D48" s="6"/>
@@ -10362,7 +10370,7 @@
       <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D49" s="1"/>
@@ -10397,7 +10405,7 @@
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D50" s="1"/>
@@ -10419,8 +10427,8 @@
       <c r="S50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
       <c r="X50" s="49"/>
@@ -10432,7 +10440,7 @@
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D51" s="1"/>
@@ -10465,7 +10473,7 @@
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D52" s="1"/>
@@ -10508,10 +10516,10 @@
       <c r="B53" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="87" t="s">
+      <c r="C53" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="D53" s="103" t="s">
+      <c r="D53" s="84" t="s">
         <v>342</v>
       </c>
       <c r="E53" s="2"/>
@@ -10553,7 +10561,7 @@
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="68" t="s">
         <v>326</v>
       </c>
       <c r="D54" s="6"/>
@@ -10596,7 +10604,7 @@
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="67" t="s">
         <v>343</v>
       </c>
       <c r="D55" s="1"/>
@@ -10637,7 +10645,7 @@
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D56" s="1"/>
@@ -10680,7 +10688,7 @@
       <c r="B57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="67" t="s">
         <v>343</v>
       </c>
       <c r="D57" s="1"/>
@@ -10721,7 +10729,7 @@
       <c r="X57" s="49"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="81" t="s">
         <v>345</v>
       </c>
       <c r="R58" s="50"/>
@@ -10743,7 +10751,7 @@
       <c r="X58" s="49"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="79" t="s">
         <v>352</v>
       </c>
       <c r="R59" s="50"/>
@@ -10765,7 +10773,7 @@
       <c r="X59" s="49"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="s">
+      <c r="A60" s="80" t="s">
         <v>344</v>
       </c>
       <c r="R60" s="50"/>
@@ -10777,8 +10785,8 @@
       <c r="X60" s="49"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="99" t="s">
-        <v>379</v>
+      <c r="A61" s="80" t="s">
+        <v>378</v>
       </c>
       <c r="R61" s="61"/>
       <c r="S61" s="62"/>
@@ -10789,16 +10797,16 @@
       <c r="X61" s="63"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="75"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="84" t="s">
+      <c r="E62" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="85"/>
+      <c r="F62" s="103"/>
       <c r="G62" s="64"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -10866,7 +10874,7 @@
       <c r="B64" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
         <v>255</v>
@@ -10895,7 +10903,7 @@
       <c r="B65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="86"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="1"/>
       <c r="E65" s="17" t="s">
         <v>190</v>
@@ -10929,8 +10937,8 @@
       <c r="B66" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="101" t="s">
+      <c r="C66" s="67"/>
+      <c r="D66" s="82" t="s">
         <v>346</v>
       </c>
       <c r="E66" s="2"/>
@@ -10959,7 +10967,7 @@
       <c r="B67" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="92"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
         <v>256</v>
@@ -10988,7 +10996,7 @@
       <c r="B68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="87"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
@@ -11015,8 +11023,10 @@
       <c r="B69" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="92"/>
-      <c r="D69" s="30"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="82" t="s">
+        <v>380</v>
+      </c>
       <c r="E69" s="30" t="s">
         <v>226</v>
       </c>
@@ -11044,7 +11054,7 @@
       <c r="B70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="86"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -11068,8 +11078,8 @@
       <c r="B71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="101" t="s">
+      <c r="C71" s="67"/>
+      <c r="D71" s="82" t="s">
         <v>373</v>
       </c>
       <c r="E71" s="2"/>
@@ -11094,7 +11104,7 @@
       <c r="B72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="86"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -11119,8 +11129,8 @@
       <c r="B73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="101" t="s">
+      <c r="C73" s="67"/>
+      <c r="D73" s="82" t="s">
         <v>374</v>
       </c>
       <c r="E73" s="6"/>
@@ -11145,8 +11155,8 @@
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="101" t="s">
+      <c r="C74" s="67"/>
+      <c r="D74" s="82" t="s">
         <v>375</v>
       </c>
       <c r="E74" s="2"/>
@@ -11177,8 +11187,9 @@
       <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="86"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="82" t="s">
+        <v>380</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
         <v>178</v>
@@ -11205,8 +11216,9 @@
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="82" t="s">
+        <v>380</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
         <v>178</v>
@@ -11233,7 +11245,7 @@
       <c r="B77" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="87"/>
+      <c r="C77" s="68"/>
       <c r="D77" s="6"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
@@ -11262,9 +11274,9 @@
       <c r="B78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="103" t="s">
-        <v>376</v>
+      <c r="C78" s="68"/>
+      <c r="D78" s="84" t="s">
+        <v>382</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -11293,7 +11305,7 @@
       <c r="B79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="86"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -11317,7 +11329,7 @@
       <c r="B80" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="86"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -11343,7 +11355,7 @@
       <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="86"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="1"/>
       <c r="E81" s="17" t="s">
         <v>195</v>
@@ -11367,7 +11379,7 @@
       <c r="W81" s="13"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="100" t="s">
+      <c r="A82" s="81" t="s">
         <v>345</v>
       </c>
       <c r="R82" s="13"/>
@@ -11377,7 +11389,7 @@
       <c r="V82" s="13"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
+      <c r="A83" s="79" t="s">
         <v>352</v>
       </c>
       <c r="R83" s="13"/>
@@ -11387,7 +11399,7 @@
       <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="99" t="s">
+      <c r="A84" s="80" t="s">
         <v>344</v>
       </c>
       <c r="S84" s="13"/>
@@ -11396,8 +11408,8 @@
       <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="99" t="s">
-        <v>379</v>
+      <c r="A85" s="80" t="s">
+        <v>378</v>
       </c>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
@@ -11405,16 +11417,16 @@
       <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="75"/>
+      <c r="B86" s="87"/>
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
-      <c r="E86" s="84" t="s">
+      <c r="E86" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="103"/>
       <c r="G86" s="64"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -11433,7 +11445,7 @@
       <c r="B87" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="93"/>
+      <c r="C87" s="74"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14" t="s">
         <v>3</v>
@@ -11473,7 +11485,7 @@
       <c r="B88" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="93"/>
+      <c r="C88" s="74"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14" t="s">
         <v>264</v>
@@ -11502,7 +11514,7 @@
       <c r="B89" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="87"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
@@ -11531,7 +11543,7 @@
       <c r="B90" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="87"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
@@ -11555,7 +11567,7 @@
       <c r="B91" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="87"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="6"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -11580,7 +11592,7 @@
       <c r="B92" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="87"/>
+      <c r="C92" s="68"/>
       <c r="D92" s="6"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -11602,7 +11614,7 @@
       <c r="B93" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="87"/>
+      <c r="C93" s="68"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -11626,7 +11638,7 @@
       <c r="B94" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="87"/>
+      <c r="C94" s="68"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -11654,7 +11666,7 @@
       <c r="B95" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="91"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
       <c r="F95" s="30" t="s">
@@ -11681,7 +11693,7 @@
       <c r="B96" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C96" s="87"/>
+      <c r="C96" s="68"/>
       <c r="D96" s="6"/>
       <c r="E96" s="2"/>
       <c r="F96" s="6" t="s">
@@ -11699,21 +11711,21 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="100" t="s">
+      <c r="A97" s="81" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="75"/>
+      <c r="B100" s="87"/>
       <c r="C100" s="64"/>
       <c r="D100" s="64"/>
-      <c r="E100" s="84" t="s">
+      <c r="E100" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="103"/>
       <c r="G100" s="64"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -11770,7 +11782,7 @@
       <c r="B102" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="93"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14" t="s">
         <v>265</v>
@@ -11799,7 +11811,7 @@
       <c r="B103" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="86"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="1"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
@@ -11830,7 +11842,7 @@
       <c r="B104" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C104" s="86"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="1"/>
       <c r="E104" s="6" t="s">
         <v>226</v>
@@ -11856,7 +11868,7 @@
       <c r="B105" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C105" s="86"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="1"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
@@ -11880,9 +11892,9 @@
       <c r="B106" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="101" t="s">
-        <v>377</v>
+      <c r="C106" s="67"/>
+      <c r="D106" s="82" t="s">
+        <v>376</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
@@ -11906,7 +11918,7 @@
       <c r="B107" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="87"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="6"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
@@ -11928,7 +11940,7 @@
       <c r="B108" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="87"/>
+      <c r="C108" s="68"/>
       <c r="D108" s="6"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
@@ -11952,7 +11964,7 @@
       <c r="B109" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="86"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="1"/>
       <c r="E109" s="2" t="s">
         <v>227</v>
@@ -11978,7 +11990,7 @@
       <c r="B110" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C110" s="91"/>
+      <c r="C110" s="72"/>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
       <c r="F110" s="30" t="s">
@@ -12002,7 +12014,7 @@
       <c r="B111" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C111" s="87"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="6"/>
       <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
@@ -12020,26 +12032,26 @@
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
+      <c r="A112" s="81" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" s="100" t="s">
+      <c r="A113" s="81" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="75"/>
+      <c r="B115" s="87"/>
       <c r="C115" s="64"/>
       <c r="D115" s="64"/>
-      <c r="E115" s="82" t="s">
+      <c r="E115" s="102" t="s">
         <v>349</v>
       </c>
-      <c r="F115" s="85"/>
+      <c r="F115" s="103"/>
       <c r="G115" s="64"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -12098,8 +12110,10 @@
       <c r="B117" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C117" s="91"/>
-      <c r="D117" s="31"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="31" t="s">
+        <v>381</v>
+      </c>
       <c r="E117" s="31" t="s">
         <v>255</v>
       </c>
@@ -12131,7 +12145,7 @@
       <c r="B118" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="86"/>
+      <c r="C118" s="67"/>
       <c r="D118" s="1"/>
       <c r="E118" s="2" t="s">
         <v>198</v>
@@ -12166,7 +12180,7 @@
       <c r="B119" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C119" s="86"/>
+      <c r="C119" s="67"/>
       <c r="D119" s="1"/>
       <c r="E119" s="22" t="s">
         <v>220</v>
@@ -12199,7 +12213,7 @@
       <c r="B120" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C120" s="94"/>
+      <c r="C120" s="75"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
         <v>265</v>
@@ -12235,7 +12249,7 @@
       <c r="B121" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="87"/>
+      <c r="C121" s="68"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
@@ -12263,7 +12277,7 @@
       <c r="B122" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C122" s="92"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
         <v>226</v>
@@ -12294,7 +12308,7 @@
       <c r="B123" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="87"/>
+      <c r="C123" s="68"/>
       <c r="D123" s="6"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
@@ -12320,8 +12334,8 @@
       <c r="B124" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C124" s="87"/>
-      <c r="D124" s="103" t="s">
+      <c r="C124" s="68"/>
+      <c r="D124" s="84" t="s">
         <v>354</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -12350,8 +12364,8 @@
       <c r="B125" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C125" s="95"/>
-      <c r="D125" s="101" t="s">
+      <c r="C125" s="76"/>
+      <c r="D125" s="82" t="s">
         <v>350</v>
       </c>
       <c r="E125" s="2"/>
@@ -12376,7 +12390,7 @@
       <c r="B126" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C126" s="86"/>
+      <c r="C126" s="67"/>
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
@@ -12401,7 +12415,7 @@
       <c r="B127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C127" s="86"/>
+      <c r="C127" s="67"/>
       <c r="D127" s="1"/>
       <c r="E127" s="17" t="s">
         <v>216</v>
@@ -12428,7 +12442,7 @@
       <c r="V127" s="19"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128" s="98" t="s">
+      <c r="A128" s="79" t="s">
         <v>352</v>
       </c>
       <c r="O128" s="1"/>
@@ -12438,94 +12452,94 @@
       <c r="V128" s="19"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
+      <c r="A129" s="80" t="s">
         <v>344</v>
       </c>
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="101" t="s">
+      <c r="A130" s="82" t="s">
         <v>121</v>
       </c>
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="101" t="s">
+      <c r="A131" s="82" t="s">
         <v>21</v>
       </c>
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="101" t="s">
+      <c r="A132" s="82" t="s">
         <v>124</v>
       </c>
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="101" t="s">
+      <c r="A133" s="82" t="s">
         <v>125</v>
       </c>
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="101" t="s">
+      <c r="A134" s="82" t="s">
         <v>126</v>
       </c>
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="101" t="s">
+      <c r="A135" s="82" t="s">
         <v>127</v>
       </c>
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="101" t="s">
+      <c r="A136" s="82" t="s">
         <v>129</v>
       </c>
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="101" t="s">
+      <c r="A137" s="82" t="s">
         <v>130</v>
       </c>
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="101" t="s">
+      <c r="A138" s="82" t="s">
         <v>131</v>
       </c>
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="101" t="s">
-        <v>378</v>
+      <c r="A139" s="82" t="s">
+        <v>377</v>
       </c>
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="103" t="s">
+      <c r="A140" s="84" t="s">
         <v>133</v>
       </c>
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="98" t="s">
-        <v>380</v>
+      <c r="A141" s="79" t="s">
+        <v>379</v>
       </c>
       <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="75" t="s">
+      <c r="A142" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="75"/>
+      <c r="B142" s="87"/>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
-      <c r="E142" s="84" t="s">
+      <c r="E142" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F142" s="85"/>
+      <c r="F142" s="103"/>
       <c r="G142" s="64"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -12575,7 +12589,7 @@
       <c r="N143" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O143" s="98"/>
+      <c r="O143" s="79"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
@@ -12584,8 +12598,8 @@
       <c r="B144" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C144" s="86"/>
-      <c r="D144" s="101" t="s">
+      <c r="C144" s="67"/>
+      <c r="D144" s="82" t="s">
         <v>356</v>
       </c>
       <c r="E144" s="17" t="s">
@@ -12606,7 +12620,7 @@
       <c r="N144" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="O144" s="99"/>
+      <c r="O144" s="80"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="31" t="s">
@@ -12615,8 +12629,8 @@
       <c r="B145" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C145" s="91"/>
-      <c r="D145" s="105" t="s">
+      <c r="C145" s="72"/>
+      <c r="D145" s="86" t="s">
         <v>360</v>
       </c>
       <c r="E145" s="31" t="s">
@@ -12643,7 +12657,7 @@
       <c r="B146" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C146" s="86"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="1"/>
       <c r="E146" s="17" t="s">
         <v>190</v>
@@ -12671,7 +12685,7 @@
       <c r="B147" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C147" s="86"/>
+      <c r="C147" s="67"/>
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
@@ -12695,7 +12709,7 @@
       <c r="B148" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C148" s="86"/>
+      <c r="C148" s="67"/>
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
@@ -12719,8 +12733,8 @@
       <c r="B149" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="86"/>
-      <c r="D149" s="104" t="s">
+      <c r="C149" s="67"/>
+      <c r="D149" s="85" t="s">
         <v>358</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -12748,7 +12762,7 @@
       <c r="B150" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C150" s="102" t="s">
+      <c r="C150" s="83" t="s">
         <v>355</v>
       </c>
       <c r="D150" s="1"/>
@@ -12775,7 +12789,7 @@
       <c r="B151" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C151" s="86"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
       <c r="F151" s="22" t="s">
@@ -12792,34 +12806,34 @@
       <c r="Q151" s="13"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="100" t="s">
+      <c r="A152" s="81" t="s">
         <v>361</v>
       </c>
       <c r="Q152" s="13"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="100" t="s">
+      <c r="A153" s="81" t="s">
         <v>359</v>
       </c>
       <c r="Q153" s="13"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="98" t="s">
+      <c r="A154" s="79" t="s">
         <v>363</v>
       </c>
       <c r="R154" s="13"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="75" t="s">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="75"/>
+      <c r="B155" s="87"/>
       <c r="C155" s="64"/>
       <c r="D155" s="64"/>
-      <c r="E155" s="84" t="s">
+      <c r="E155" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="F155" s="85"/>
+      <c r="F155" s="103"/>
       <c r="G155" s="64"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -12878,7 +12892,7 @@
       <c r="B157" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C157" s="86"/>
+      <c r="C157" s="67"/>
       <c r="D157" s="1"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
@@ -12903,7 +12917,7 @@
       <c r="B158" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C158" s="86"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
@@ -12928,7 +12942,7 @@
       <c r="B159" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C159" s="95"/>
+      <c r="C159" s="76"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2" t="s">
@@ -12952,7 +12966,7 @@
       <c r="B160" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C160" s="86"/>
+      <c r="C160" s="67"/>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2" t="s">
@@ -12976,7 +12990,7 @@
       <c r="B161" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C161" s="87"/>
+      <c r="C161" s="68"/>
       <c r="D161" s="6"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
@@ -13000,8 +13014,8 @@
       <c r="B162" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C162" s="86"/>
-      <c r="D162" s="101" t="s">
+      <c r="C162" s="67"/>
+      <c r="D162" s="82" t="s">
         <v>364</v>
       </c>
       <c r="E162" s="2"/>
@@ -13020,26 +13034,26 @@
       <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A163" s="100" t="s">
+      <c r="A163" s="81" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A164" s="100" t="s">
+      <c r="A164" s="81" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A166" s="75" t="s">
+      <c r="A166" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="75"/>
+      <c r="B166" s="87"/>
       <c r="C166" s="64"/>
       <c r="D166" s="64"/>
-      <c r="E166" s="84" t="s">
+      <c r="E166" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="F166" s="85"/>
+      <c r="F166" s="103"/>
       <c r="G166" s="64"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -13096,7 +13110,7 @@
       <c r="B168" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C168" s="92"/>
+      <c r="C168" s="73"/>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
         <v>256</v>
@@ -13124,7 +13138,7 @@
       <c r="B169" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C169" s="86"/>
+      <c r="C169" s="67"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
       <c r="F169" s="6" t="s">
@@ -13142,11 +13156,11 @@
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="99" t="s">
+      <c r="A170" s="80" t="s">
         <v>367</v>
       </c>
       <c r="B170" s="27"/>
-      <c r="C170" s="96"/>
+      <c r="C170" s="77"/>
       <c r="D170" s="27"/>
       <c r="R170"/>
       <c r="S170"/>
@@ -13158,7 +13172,7 @@
     <row r="171" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
-      <c r="C171" s="97"/>
+      <c r="C171" s="78"/>
       <c r="D171" s="26"/>
       <c r="G171" s="28"/>
       <c r="R171"/>
@@ -13171,7 +13185,7 @@
     <row r="172" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
-      <c r="C172" s="89"/>
+      <c r="C172" s="70"/>
       <c r="D172" s="29"/>
       <c r="G172" s="28"/>
       <c r="R172"/>
@@ -13182,16 +13196,16 @@
       <c r="W172"/>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A173" s="75" t="s">
+      <c r="A173" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="75"/>
+      <c r="B173" s="87"/>
       <c r="C173" s="64"/>
       <c r="D173" s="64"/>
-      <c r="E173" s="106" t="s">
+      <c r="E173" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="F173" s="85"/>
+      <c r="F173" s="103"/>
       <c r="G173" s="64"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -13250,7 +13264,7 @@
       <c r="B175" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C175" s="86"/>
+      <c r="C175" s="67"/>
       <c r="D175" s="1"/>
       <c r="E175" s="6" t="s">
         <v>293</v>
@@ -13278,8 +13292,8 @@
       <c r="B176" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C176" s="86"/>
-      <c r="D176" s="101" t="s">
+      <c r="C176" s="67"/>
+      <c r="D176" s="82" t="s">
         <v>369</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -13301,13 +13315,13 @@
       <c r="R176" s="13"/>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177" s="99" t="s">
+      <c r="A177" s="80" t="s">
         <v>370</v>
       </c>
       <c r="R177" s="13"/>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A178" s="99" t="s">
+      <c r="A178" s="80" t="s">
         <v>371</v>
       </c>
       <c r="S178" s="13"/>
@@ -13316,7 +13330,7 @@
       <c r="V178" s="13"/>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A179" s="99" t="s">
+      <c r="A179" s="80" t="s">
         <v>372</v>
       </c>
       <c r="S179" s="13"/>
@@ -13332,6 +13346,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="R38:U39"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="E115:F115"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="E166:F166"/>
@@ -13342,26 +13376,6 @@
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="A155:B155"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="R38:U39"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/資料庫建立檢表.xlsx
+++ b/DataBase/資料庫建立檢表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="-15" windowWidth="11475" windowHeight="9540" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="11616" yWindow="-12" windowWidth="11472" windowHeight="9540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="385">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,31 +1459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(預約資料)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>資料資料reserve</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>預約訂單成立之時?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1646,15 +1621,78 @@
     <t>建立目前被借走設備之預約序號之紀錄?(才可知道還差幾號才輪到我來計算等待人數)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>租賃與購物訂單資料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ord</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>預約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>資料reserve</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是開放預約應該
+不需要這些欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 開放預約應該不會知道實際到貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1767,6 +1805,14 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1968,7 +2014,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2170,63 +2216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2287,8 +2276,71 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2351,7 +2403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2383,27 +2435,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2435,24 +2469,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2628,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2638,36 +2654,36 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="23.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2680,7 +2696,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2718,7 +2734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2746,7 +2762,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -2775,7 +2791,7 @@
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2799,7 +2815,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -2823,7 +2839,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -2847,7 +2863,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -2871,7 +2887,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="56"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2895,11 +2911,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -2929,7 +2945,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -2959,7 +2975,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -2987,7 +3003,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -3008,17 +3024,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="67" t="s">
+      <c r="P13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="6" t="s">
         <v>232</v>
       </c>
@@ -3037,15 +3053,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="45" t="s">
         <v>295</v>
       </c>
@@ -3066,15 +3082,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
@@ -3105,7 +3121,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -3126,7 +3142,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -3147,7 +3163,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="P19" s="50" t="s">
         <v>88</v>
       </c>
@@ -3157,20 +3173,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="77" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3193,7 +3209,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3245,7 +3261,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
@@ -3283,7 +3299,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -3323,7 +3339,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3350,7 +3366,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3385,7 +3401,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -3415,12 +3431,12 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3455,7 +3471,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3488,7 +3504,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3521,7 +3537,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -3550,7 +3566,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3579,7 +3595,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -3612,7 +3628,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3644,12 +3660,12 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3686,7 +3702,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="19" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3723,7 +3739,7 @@
       <c r="U35" s="40"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
@@ -3754,7 +3770,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -3783,27 +3799,27 @@
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P38" s="71" t="s">
+    <row r="38" spans="1:25">
+      <c r="P38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P39" s="71"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
+    <row r="39" spans="1:25">
+      <c r="P39" s="95"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="24.6">
       <c r="P40" s="57" t="s">
         <v>280</v>
       </c>
@@ -3817,26 +3833,26 @@
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="P41" s="50"/>
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+    <row r="42" spans="1:25">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3856,7 +3872,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3912,7 +3928,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
@@ -3954,7 +3970,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -4001,7 +4017,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4042,7 +4058,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="30" t="s">
         <v>257</v>
       </c>
@@ -4084,7 +4100,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="49"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -4116,7 +4132,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="24.6">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -4147,7 +4163,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -4172,13 +4188,13 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -4207,7 +4223,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -4246,7 +4262,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -4285,7 +4301,7 @@
       </c>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -4324,7 +4340,7 @@
       </c>
       <c r="V54" s="49"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -4361,7 +4377,7 @@
       </c>
       <c r="V55" s="49"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -4400,7 +4416,7 @@
       </c>
       <c r="V56" s="49"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -4443,7 +4459,7 @@
       </c>
       <c r="V57" s="49"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="P58" s="50"/>
       <c r="Q58" s="38" t="s">
         <v>270</v>
@@ -4462,7 +4478,7 @@
       </c>
       <c r="V58" s="49"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="P59" s="50"/>
       <c r="Q59" s="38" t="s">
         <v>270</v>
@@ -4481,7 +4497,7 @@
       </c>
       <c r="V59" s="49"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="P60" s="50"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
@@ -4490,7 +4506,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="49"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="P61" s="61"/>
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
@@ -4499,15 +4515,15 @@
       <c r="U61" s="62"/>
       <c r="V61" s="63"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+    <row r="62" spans="1:22">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="75"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4525,7 +4541,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="31" t="s">
         <v>269</v>
       </c>
@@ -4593,7 +4609,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4625,7 +4641,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4651,7 +4667,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="A67" s="30" t="s">
         <v>257</v>
       </c>
@@ -4678,7 +4694,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -4703,7 +4719,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21">
       <c r="A69" s="30" t="s">
         <v>225</v>
       </c>
@@ -4730,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21">
       <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
@@ -4752,7 +4768,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21">
       <c r="A71" s="1" t="s">
         <v>251</v>
       </c>
@@ -4774,7 +4790,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -4797,7 +4813,7 @@
       <c r="L72" s="2"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -4819,7 +4835,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" s="13" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -4847,7 +4863,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="13" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -4873,7 +4889,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" s="13" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -4899,7 +4915,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="13" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
@@ -4926,7 +4942,7 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="13" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -4953,7 +4969,7 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -4975,7 +4991,7 @@
       <c r="P79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -4999,7 +5015,7 @@
       <c r="P80" s="13"/>
       <c r="U80" s="13"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -5027,41 +5043,41 @@
       <c r="P81" s="13"/>
       <c r="U81" s="13"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+    <row r="86" spans="1:21" s="13" customFormat="1">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="75"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5073,7 +5089,7 @@
       <c r="P86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
@@ -5111,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21">
       <c r="A88" s="14" t="s">
         <v>263</v>
       </c>
@@ -5138,7 +5154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
@@ -5165,7 +5181,7 @@
       <c r="L89" s="2"/>
       <c r="U89" s="13"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -5187,7 +5203,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -5210,7 +5226,7 @@
       <c r="L91" s="2"/>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -5230,7 +5246,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
@@ -5252,7 +5268,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
@@ -5278,7 +5294,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="30" t="s">
         <v>257</v>
       </c>
@@ -5303,7 +5319,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21">
       <c r="A96" s="45" t="s">
         <v>295</v>
       </c>
@@ -5325,15 +5341,15 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+    <row r="100" spans="1:15">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75" t="s">
+      <c r="B100" s="87"/>
+      <c r="C100" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="75"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5343,7 +5359,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -5381,7 +5397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
@@ -5408,7 +5424,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -5437,7 +5453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
@@ -5461,7 +5477,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -5483,7 +5499,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -5505,7 +5521,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -5525,7 +5541,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
@@ -5547,7 +5563,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
@@ -5571,7 +5587,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="30" t="s">
         <v>257</v>
       </c>
@@ -5593,7 +5609,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="45" t="s">
         <v>295</v>
       </c>
@@ -5615,15 +5631,15 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+    <row r="115" spans="1:21">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="75"/>
-      <c r="C115" s="75" t="s">
+      <c r="B115" s="87"/>
+      <c r="C115" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="75"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5633,7 +5649,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5671,7 +5687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21">
       <c r="A117" s="31" t="s">
         <v>269</v>
       </c>
@@ -5701,7 +5717,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -5733,7 +5749,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" s="19" customFormat="1">
       <c r="A119" s="5" t="s">
         <v>217</v>
       </c>
@@ -5763,7 +5779,7 @@
       <c r="T119"/>
       <c r="U119"/>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" s="19" customFormat="1">
       <c r="A120" s="33" t="s">
         <v>263</v>
       </c>
@@ -5796,7 +5812,7 @@
       <c r="T120"/>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -5821,7 +5837,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="30" t="s">
         <v>225</v>
       </c>
@@ -5849,7 +5865,7 @@
       </c>
       <c r="U122" s="19"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
@@ -5872,7 +5888,7 @@
       <c r="L123" s="2"/>
       <c r="U123" s="19"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21">
       <c r="A124" s="5" t="s">
         <v>164</v>
       </c>
@@ -5897,7 +5913,7 @@
       <c r="L124" s="2"/>
       <c r="P124" s="19"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
@@ -5918,7 +5934,7 @@
       <c r="L125" s="2"/>
       <c r="P125" s="19"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
@@ -5940,7 +5956,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -5970,21 +5986,21 @@
       <c r="S127" s="19"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21">
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="75" t="s">
+    <row r="131" spans="1:16">
+      <c r="A131" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75" t="s">
+      <c r="B131" s="87"/>
+      <c r="C131" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="75"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -5994,7 +6010,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -6032,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="7" t="s">
         <v>86</v>
       </c>
@@ -6058,7 +6074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="31" t="s">
         <v>269</v>
       </c>
@@ -6082,7 +6098,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
@@ -6108,7 +6124,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
@@ -6130,7 +6146,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -6152,7 +6168,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -6177,7 +6193,7 @@
       <c r="L138" s="2"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="8" t="s">
         <v>96</v>
       </c>
@@ -6200,7 +6216,7 @@
       <c r="L139" s="2"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
         <v>235</v>
       </c>
@@ -6221,24 +6237,24 @@
       <c r="L140" s="2"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="P143" s="13"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="75" t="s">
+    <row r="144" spans="1:16">
+      <c r="A144" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="75"/>
-      <c r="C144" s="75" t="s">
+      <c r="B144" s="87"/>
+      <c r="C144" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="75"/>
+      <c r="D144" s="87"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6249,7 +6265,7 @@
       <c r="L144" s="9"/>
       <c r="P144" s="13"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -6288,7 +6304,7 @@
       </c>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -6311,7 +6327,7 @@
       <c r="L146" s="2"/>
       <c r="P146" s="13"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -6334,7 +6350,7 @@
       <c r="L147" s="2"/>
       <c r="P147" s="13"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -6356,7 +6372,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -6378,7 +6394,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21">
       <c r="A150" s="6" t="s">
         <v>171</v>
       </c>
@@ -6400,7 +6416,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -6422,15 +6438,15 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A155" s="75" t="s">
+    <row r="155" spans="1:21">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="75"/>
-      <c r="C155" s="75" t="s">
+      <c r="B155" s="87"/>
+      <c r="C155" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="75"/>
+      <c r="D155" s="87"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6440,7 +6456,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -6478,7 +6494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21">
       <c r="A157" s="30" t="s">
         <v>257</v>
       </c>
@@ -6504,7 +6520,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21">
       <c r="A158" s="1" t="s">
         <v>239</v>
       </c>
@@ -6526,7 +6542,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" s="13" customFormat="1">
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
       <c r="P159"/>
@@ -6536,7 +6552,7 @@
       <c r="T159"/>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" s="13" customFormat="1">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="E160" s="28"/>
@@ -6547,7 +6563,7 @@
       <c r="T160"/>
       <c r="U160"/>
     </row>
-    <row r="161" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" s="13" customFormat="1">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="E161" s="28"/>
@@ -6558,15 +6574,15 @@
       <c r="T161"/>
       <c r="U161"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162" s="75" t="s">
+    <row r="162" spans="1:21">
+      <c r="A162" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="75"/>
-      <c r="C162" s="75" t="s">
+      <c r="B162" s="87"/>
+      <c r="C162" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="75"/>
+      <c r="D162" s="87"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6577,7 +6593,7 @@
       <c r="L162" s="9"/>
       <c r="U162" s="13"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21">
       <c r="A163" s="2" t="s">
         <v>25</v>
       </c>
@@ -6616,7 +6632,7 @@
       </c>
       <c r="U163" s="13"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21">
       <c r="A164" s="1" t="s">
         <v>244</v>
       </c>
@@ -6642,7 +6658,7 @@
       <c r="P164" s="13"/>
       <c r="U164" s="13"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21">
       <c r="A165" s="1" t="s">
         <v>242</v>
       </c>
@@ -6667,22 +6683,22 @@
       <c r="L165" s="2"/>
       <c r="P165" s="13"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21">
       <c r="P166" s="13"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21">
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21">
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21">
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
@@ -6690,6 +6706,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6706,20 +6736,6 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6728,285 +6744,293 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="H1" s="81" t="s">
+      <c r="F1" s="101"/>
+      <c r="H1" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="K1" s="81" t="s">
+      <c r="I1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="N1" s="78" t="s">
+      <c r="L1" s="100"/>
+      <c r="N1" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="78"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="O1" s="101"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="E2" s="79" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="H2" s="79" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="K2" s="79" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="N2" s="79" t="s">
+      <c r="L2" s="99"/>
+      <c r="N2" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="80"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="E11" s="78" t="s">
+      <c r="C11" s="101"/>
+      <c r="E11" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="H11" s="81" t="s">
+      <c r="F11" s="101"/>
+      <c r="H11" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="K11" s="81" t="s">
+      <c r="I11" s="100"/>
+      <c r="K11" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="N11" s="78" t="s">
+      <c r="L11" s="100"/>
+      <c r="N11" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="78"/>
-    </row>
-    <row r="12" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
+      <c r="O11" s="101"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.2" customHeight="1">
+      <c r="B12" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="99"/>
+      <c r="E12" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="H12" s="79" t="s">
+      <c r="F12" s="99"/>
+      <c r="H12" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="80"/>
-      <c r="K12" s="79" t="s">
+      <c r="I12" s="99"/>
+      <c r="K12" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="N12" s="79" t="s">
+      <c r="L12" s="99"/>
+      <c r="N12" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="78" t="s">
+      <c r="O12" s="99"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="E21" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="78"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="79" t="s">
+      <c r="F21" s="101"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="E22" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="80"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="F22" s="99"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7021,14 +7045,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7037,12 +7053,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7051,33 +7067,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7085,7 +7101,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7117,7 +7133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7137,7 +7153,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7151,7 +7167,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -7165,7 +7181,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +7195,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -7193,7 +7209,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>100</v>
       </c>
@@ -7207,7 +7223,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7221,7 +7237,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7235,7 +7251,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7249,15 +7265,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7265,7 +7281,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -7297,7 +7313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -7313,7 +7329,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7329,7 +7345,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -7345,7 +7361,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7361,7 +7377,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -7377,7 +7393,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7393,7 +7409,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7409,7 +7425,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7425,15 +7441,15 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7441,7 +7457,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -7473,7 +7489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7489,7 +7505,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -7505,7 +7521,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -7521,7 +7537,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -7537,7 +7553,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -7553,15 +7569,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7569,7 +7585,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -7601,7 +7617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -7617,7 +7633,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7633,7 +7649,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
@@ -7649,7 +7665,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -7665,7 +7681,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -7681,7 +7697,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -7697,7 +7713,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -7713,7 +7729,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -7729,15 +7745,15 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -7745,7 +7761,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -7777,7 +7793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
@@ -7793,7 +7809,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="6" t="s">
         <v>39</v>
       </c>
@@ -7809,7 +7825,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -7825,7 +7841,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -7841,7 +7857,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
@@ -7857,15 +7873,15 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75" t="s">
+      <c r="B66" s="87"/>
+      <c r="C66" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="75"/>
+      <c r="D66" s="87"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7873,7 +7889,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -7905,7 +7921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -7921,7 +7937,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -7937,7 +7953,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -7953,7 +7969,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
@@ -7969,7 +7985,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -7985,15 +8001,15 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="75"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8001,7 +8017,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -8033,7 +8049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
@@ -8049,7 +8065,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="5" t="s">
         <v>72</v>
       </c>
@@ -8065,7 +8081,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -8081,7 +8097,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -8097,7 +8113,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -8113,7 +8129,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -8129,7 +8145,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -8145,7 +8161,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -8161,15 +8177,15 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="75" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75" t="s">
+      <c r="B91" s="87"/>
+      <c r="C91" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="75"/>
+      <c r="D91" s="87"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8177,7 +8193,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -8209,7 +8225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="5" t="s">
         <v>70</v>
       </c>
@@ -8225,7 +8241,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
@@ -8241,7 +8257,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -8257,7 +8273,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="5" t="s">
         <v>75</v>
       </c>
@@ -8273,7 +8289,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -8289,7 +8305,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -8305,7 +8321,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -8321,7 +8337,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="5" t="s">
         <v>79</v>
       </c>
@@ -8337,7 +8353,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="6" t="s">
         <v>55</v>
       </c>
@@ -8353,15 +8369,15 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="75" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="75"/>
-      <c r="C106" s="75" t="s">
+      <c r="B106" s="87"/>
+      <c r="C106" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="75"/>
+      <c r="D106" s="87"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8369,7 +8385,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
         <v>25</v>
       </c>
@@ -8401,7 +8417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -8417,7 +8433,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="6" t="s">
         <v>82</v>
       </c>
@@ -8433,15 +8449,15 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="75" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="75"/>
-      <c r="C114" s="75" t="s">
+      <c r="B114" s="87"/>
+      <c r="C114" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="75"/>
+      <c r="D114" s="87"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8449,7 +8465,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
@@ -8481,7 +8497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
@@ -8497,7 +8513,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="6" t="s">
         <v>82</v>
       </c>
@@ -8513,15 +8529,15 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="75" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75" t="s">
+      <c r="B122" s="87"/>
+      <c r="C122" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="75"/>
+      <c r="D122" s="87"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8529,7 +8545,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
@@ -8561,7 +8577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
@@ -8577,7 +8593,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -8593,7 +8609,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -8609,7 +8625,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -8625,7 +8641,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -8641,7 +8657,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
@@ -8659,6 +8675,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8669,18 +8697,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8689,54 +8705,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AA180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="23.875" customWidth="1"/>
-    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.5" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85"/>
+      <c r="F1" s="103"/>
       <c r="G1" s="64"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -8749,7 +8765,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8789,14 +8805,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -8819,14 +8835,14 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D4" s="1"/>
@@ -8852,17 +8868,17 @@
       </c>
       <c r="Q4" s="25"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="82" t="s">
         <v>327</v>
       </c>
       <c r="E5" s="2"/>
@@ -8882,14 +8898,14 @@
       <c r="O5" s="54"/>
       <c r="P5" s="66"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D6" s="1"/>
@@ -8910,14 +8926,14 @@
       <c r="O6" s="54"/>
       <c r="P6" s="66"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D7" s="1"/>
@@ -8938,14 +8954,14 @@
       <c r="O7" s="54"/>
       <c r="P7" s="66"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D8" s="1"/>
@@ -8966,14 +8982,14 @@
       <c r="O8" s="54"/>
       <c r="P8" s="66"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="1"/>
@@ -8994,18 +9010,18 @@
       <c r="R9" s="19"/>
       <c r="S9" s="34"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="1"/>
@@ -9032,17 +9048,17 @@
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="82" t="s">
         <v>328</v>
       </c>
       <c r="E11" s="2"/>
@@ -9068,14 +9084,14 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D12" s="1"/>
@@ -9100,14 +9116,14 @@
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="67" t="s">
         <v>325</v>
       </c>
       <c r="D13" s="1"/>
@@ -9125,24 +9141,24 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="R13" s="67" t="s">
+      <c r="R13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="47"/>
       <c r="W13" s="47"/>
       <c r="X13" s="48"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="68" t="s">
         <v>329</v>
       </c>
       <c r="D14" s="6"/>
@@ -9158,22 +9174,22 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
       <c r="X14" s="49"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="69" t="s">
         <v>326</v>
       </c>
       <c r="D15" s="46"/>
@@ -9191,22 +9207,22 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="49"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="68" t="s">
         <v>325</v>
       </c>
       <c r="D16" s="6"/>
@@ -9234,10 +9250,10 @@
       <c r="W16" s="13"/>
       <c r="X16" s="49"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="89"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="29"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -9257,10 +9273,10 @@
       <c r="W17" s="13"/>
       <c r="X17" s="49"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="89"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="29"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -9280,7 +9296,7 @@
       <c r="W18" s="13"/>
       <c r="X18" s="49"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="R19" s="50" t="s">
         <v>88</v>
       </c>
@@ -9290,26 +9306,26 @@
       <c r="T19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
       <c r="W19" s="13"/>
       <c r="X19" s="49"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:24">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="83"/>
+      <c r="E20" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" s="106"/>
       <c r="G20" s="64"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -9332,7 +9348,7 @@
       <c r="W20" s="13"/>
       <c r="X20" s="49"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -9386,14 +9402,14 @@
       <c r="W21" s="13"/>
       <c r="X21" s="49"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
         <v>255</v>
@@ -9426,14 +9442,14 @@
       <c r="W22" s="13"/>
       <c r="X22" s="49"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D23" s="1"/>
@@ -9470,14 +9486,14 @@
       <c r="W23" s="13"/>
       <c r="X23" s="49"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D24" s="1"/>
@@ -9501,17 +9517,17 @@
       <c r="W24" s="13"/>
       <c r="X24" s="49"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="82" t="s">
         <v>333</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -9542,17 +9558,17 @@
       <c r="W25" s="13"/>
       <c r="X25" s="49"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>177</v>
@@ -9576,22 +9592,22 @@
       <c r="T26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
       <c r="W26" s="13"/>
       <c r="X26" s="49"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E27" s="2"/>
@@ -9622,17 +9638,17 @@
       <c r="W27" s="13"/>
       <c r="X27" s="49"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E28" s="2"/>
@@ -9661,17 +9677,17 @@
       <c r="W28" s="13"/>
       <c r="X28" s="49"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E29" s="2"/>
@@ -9700,17 +9716,17 @@
       <c r="W29" s="13"/>
       <c r="X29" s="49"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E30" s="2"/>
@@ -9735,14 +9751,14 @@
       <c r="W30" s="13"/>
       <c r="X30" s="49"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D31" s="6"/>
@@ -9768,14 +9784,14 @@
       <c r="W31" s="13"/>
       <c r="X31" s="49"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="68" t="s">
         <v>335</v>
       </c>
       <c r="D32" s="6"/>
@@ -9805,14 +9821,14 @@
       <c r="W32" s="13"/>
       <c r="X32" s="49"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="68" t="s">
         <v>326</v>
       </c>
       <c r="D33" s="6"/>
@@ -9841,19 +9857,19 @@
       <c r="T33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
       <c r="W33" s="13"/>
       <c r="X33" s="49"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="68" t="s">
         <v>336</v>
       </c>
       <c r="D34" s="6"/>
@@ -9887,14 +9903,14 @@
       <c r="W34" s="13"/>
       <c r="X34" s="49"/>
     </row>
-    <row r="35" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="19" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D35" s="1"/>
@@ -9928,17 +9944,17 @@
       <c r="W35" s="40"/>
       <c r="X35" s="55"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="103" t="s">
+      <c r="D36" s="84" t="s">
         <v>337</v>
       </c>
       <c r="E36" s="2"/>
@@ -9965,17 +9981,17 @@
       <c r="W36" s="13"/>
       <c r="X36" s="49"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="82" t="s">
         <v>330</v>
       </c>
       <c r="E37" s="2"/>
@@ -10000,27 +10016,27 @@
       <c r="W37" s="13"/>
       <c r="X37" s="49"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R38" s="71" t="s">
+    <row r="38" spans="1:27">
+      <c r="R38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="49"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R39" s="71"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
+    <row r="39" spans="1:27">
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="49"/>
     </row>
-    <row r="40" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="24.6">
       <c r="R40" s="57" t="s">
         <v>280</v>
       </c>
@@ -10034,28 +10050,28 @@
       <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="R41" s="50"/>
       <c r="S41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="49"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+    <row r="42" spans="1:27">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="64"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -10075,7 +10091,7 @@
       <c r="W42" s="13"/>
       <c r="X42" s="49"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -10133,14 +10149,14 @@
       <c r="W43" s="13"/>
       <c r="X43" s="49"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31" t="s">
         <v>255</v>
@@ -10177,14 +10193,14 @@
       <c r="W44" s="13"/>
       <c r="X44" s="49"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="67" t="s">
         <v>338</v>
       </c>
       <c r="D45" s="1"/>
@@ -10228,17 +10244,17 @@
       <c r="W45" s="13"/>
       <c r="X45" s="49"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="82" t="s">
         <v>340</v>
       </c>
       <c r="E46" s="2"/>
@@ -10275,14 +10291,14 @@
       <c r="W46" s="13"/>
       <c r="X46" s="49"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
         <v>256</v>
@@ -10319,14 +10335,14 @@
       <c r="W47" s="13"/>
       <c r="X47" s="49"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="68" t="s">
         <v>326</v>
       </c>
       <c r="D48" s="6"/>
@@ -10355,14 +10371,14 @@
       <c r="W48" s="13"/>
       <c r="X48" s="49"/>
     </row>
-    <row r="49" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="24.6">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D49" s="1"/>
@@ -10390,14 +10406,14 @@
       <c r="W49" s="39"/>
       <c r="X49" s="60"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D50" s="1"/>
@@ -10419,20 +10435,20 @@
       <c r="S50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
       <c r="X50" s="49"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D51" s="1"/>
@@ -10458,14 +10474,14 @@
       <c r="W51" s="13"/>
       <c r="X51" s="49"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D52" s="1"/>
@@ -10501,17 +10517,17 @@
       </c>
       <c r="X52" s="49"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="87" t="s">
+      <c r="C53" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="D53" s="103" t="s">
+      <c r="D53" s="84" t="s">
         <v>342</v>
       </c>
       <c r="E53" s="2"/>
@@ -10546,14 +10562,14 @@
       </c>
       <c r="X53" s="49"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="68" t="s">
         <v>326</v>
       </c>
       <c r="D54" s="6"/>
@@ -10589,14 +10605,14 @@
       </c>
       <c r="X54" s="49"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="67" t="s">
         <v>343</v>
       </c>
       <c r="D55" s="1"/>
@@ -10630,14 +10646,14 @@
       </c>
       <c r="X55" s="49"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="67" t="s">
         <v>326</v>
       </c>
       <c r="D56" s="1"/>
@@ -10673,14 +10689,14 @@
       </c>
       <c r="X56" s="49"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="67" t="s">
         <v>343</v>
       </c>
       <c r="D57" s="1"/>
@@ -10720,8 +10736,8 @@
       </c>
       <c r="X57" s="49"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="100" t="s">
+    <row r="58" spans="1:24">
+      <c r="A58" s="81" t="s">
         <v>345</v>
       </c>
       <c r="R58" s="50"/>
@@ -10742,9 +10758,9 @@
       </c>
       <c r="X58" s="49"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="98" t="s">
-        <v>352</v>
+    <row r="59" spans="1:24">
+      <c r="A59" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="R59" s="50"/>
       <c r="S59" s="38" t="s">
@@ -10764,8 +10780,8 @@
       </c>
       <c r="X59" s="49"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="s">
+    <row r="60" spans="1:24">
+      <c r="A60" s="80" t="s">
         <v>344</v>
       </c>
       <c r="R60" s="50"/>
@@ -10776,9 +10792,9 @@
       <c r="W60" s="13"/>
       <c r="X60" s="49"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="99" t="s">
-        <v>379</v>
+    <row r="61" spans="1:24">
+      <c r="A61" s="80" t="s">
+        <v>378</v>
       </c>
       <c r="R61" s="61"/>
       <c r="S61" s="62"/>
@@ -10788,17 +10804,17 @@
       <c r="W61" s="62"/>
       <c r="X61" s="63"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+    <row r="62" spans="1:24">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="75"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="84" t="s">
+      <c r="E62" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="85"/>
+      <c r="F62" s="103"/>
       <c r="G62" s="64"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -10816,7 +10832,7 @@
       <c r="V62" s="13"/>
       <c r="W62" s="13"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -10859,14 +10875,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" s="31" t="s">
         <v>269</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
         <v>255</v>
@@ -10888,14 +10904,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="86"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="1"/>
       <c r="E65" s="17" t="s">
         <v>190</v>
@@ -10922,15 +10938,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="101" t="s">
+      <c r="C66" s="67"/>
+      <c r="D66" s="82" t="s">
         <v>346</v>
       </c>
       <c r="E66" s="2"/>
@@ -10952,14 +10968,14 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23">
       <c r="A67" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="92"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
         <v>256</v>
@@ -10981,14 +10997,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="87"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
@@ -11008,14 +11024,14 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23">
       <c r="A69" s="30" t="s">
         <v>225</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="92"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
         <v>226</v>
@@ -11037,14 +11053,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23">
       <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="86"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
@@ -11061,16 +11077,16 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23">
       <c r="A71" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="101" t="s">
-        <v>373</v>
+      <c r="C71" s="67"/>
+      <c r="D71" s="82" t="s">
+        <v>372</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -11087,14 +11103,14 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="86"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
@@ -11112,16 +11128,16 @@
       <c r="N72" s="2"/>
       <c r="T72" s="20"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="101" t="s">
-        <v>374</v>
+      <c r="C73" s="67"/>
+      <c r="D73" s="82" t="s">
+        <v>373</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
@@ -11138,16 +11154,16 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" s="13" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="101" t="s">
-        <v>375</v>
+      <c r="C74" s="67"/>
+      <c r="D74" s="82" t="s">
+        <v>374</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -11170,14 +11186,14 @@
       <c r="V74"/>
       <c r="W74"/>
     </row>
-    <row r="75" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" s="13" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="86"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -11198,14 +11214,14 @@
       <c r="V75"/>
       <c r="W75"/>
     </row>
-    <row r="76" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" s="13" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="86"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
@@ -11226,14 +11242,14 @@
       <c r="V76"/>
       <c r="W76"/>
     </row>
-    <row r="77" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" s="13" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="87"/>
+      <c r="C77" s="68"/>
       <c r="D77" s="6"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
@@ -11255,16 +11271,16 @@
       <c r="U77"/>
       <c r="V77"/>
     </row>
-    <row r="78" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="13" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="103" t="s">
-        <v>376</v>
+      <c r="C78" s="68"/>
+      <c r="D78" s="84" t="s">
+        <v>375</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -11286,14 +11302,14 @@
       <c r="U78"/>
       <c r="V78"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="86"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -11310,14 +11326,14 @@
       <c r="R79" s="13"/>
       <c r="W79" s="13"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="86"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
@@ -11336,14 +11352,14 @@
       <c r="R80" s="13"/>
       <c r="W80" s="13"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="86"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="1"/>
       <c r="E81" s="17" t="s">
         <v>195</v>
@@ -11366,8 +11382,8 @@
       <c r="R81" s="13"/>
       <c r="W81" s="13"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="100" t="s">
+    <row r="82" spans="1:23">
+      <c r="A82" s="81" t="s">
         <v>345</v>
       </c>
       <c r="R82" s="13"/>
@@ -11376,9 +11392,9 @@
       <c r="U82" s="13"/>
       <c r="V82" s="13"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
-        <v>352</v>
+    <row r="83" spans="1:23">
+      <c r="A83" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
@@ -11386,8 +11402,8 @@
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="99" t="s">
+    <row r="84" spans="1:23">
+      <c r="A84" s="80" t="s">
         <v>344</v>
       </c>
       <c r="S84" s="13"/>
@@ -11395,26 +11411,26 @@
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="99" t="s">
-        <v>379</v>
+    <row r="85" spans="1:23">
+      <c r="A85" s="80" t="s">
+        <v>378</v>
       </c>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
       <c r="U85" s="13"/>
       <c r="V85" s="13"/>
     </row>
-    <row r="86" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+    <row r="86" spans="1:23" s="13" customFormat="1">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="75"/>
+      <c r="B86" s="87"/>
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
-      <c r="E86" s="84" t="s">
+      <c r="E86" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="103"/>
       <c r="G86" s="64"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -11426,14 +11442,14 @@
       <c r="R86"/>
       <c r="W86"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="93"/>
+      <c r="C87" s="74"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14" t="s">
         <v>3</v>
@@ -11466,14 +11482,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23">
       <c r="A88" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="93"/>
+      <c r="C88" s="74"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14" t="s">
         <v>264</v>
@@ -11495,14 +11511,14 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="87"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
@@ -11524,14 +11540,14 @@
       <c r="N89" s="2"/>
       <c r="W89" s="13"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="87"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
@@ -11548,14 +11564,14 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="87"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="6"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -11573,14 +11589,14 @@
       <c r="N91" s="2"/>
       <c r="R91" s="13"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="87"/>
+      <c r="C92" s="68"/>
       <c r="D92" s="6"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -11595,14 +11611,14 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="87"/>
+      <c r="C93" s="68"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -11619,14 +11635,14 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="87"/>
+      <c r="C94" s="68"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -11647,14 +11663,14 @@
       <c r="U94" s="13"/>
       <c r="V94" s="13"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23">
       <c r="A95" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="91"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
       <c r="F95" s="30" t="s">
@@ -11674,14 +11690,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23">
       <c r="A96" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C96" s="87"/>
+      <c r="C96" s="68"/>
       <c r="D96" s="6"/>
       <c r="E96" s="2"/>
       <c r="F96" s="6" t="s">
@@ -11698,22 +11714,22 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="100" t="s">
+    <row r="97" spans="1:17">
+      <c r="A97" s="81" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+    <row r="100" spans="1:17">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="75"/>
+      <c r="B100" s="87"/>
       <c r="C100" s="64"/>
       <c r="D100" s="64"/>
-      <c r="E100" s="84" t="s">
+      <c r="E100" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="103"/>
       <c r="G100" s="64"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -11723,7 +11739,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -11763,14 +11779,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="93"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14" t="s">
         <v>265</v>
@@ -11792,14 +11808,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="86"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="1"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
@@ -11823,14 +11839,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C104" s="86"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="1"/>
       <c r="E104" s="6" t="s">
         <v>226</v>
@@ -11849,14 +11865,14 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C105" s="86"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="1"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
@@ -11873,16 +11889,16 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="101" t="s">
-        <v>377</v>
+      <c r="C106" s="67"/>
+      <c r="D106" s="82" t="s">
+        <v>376</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
@@ -11899,14 +11915,14 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="87"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="6"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
@@ -11921,14 +11937,14 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="87"/>
+      <c r="C108" s="68"/>
       <c r="D108" s="6"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
@@ -11945,14 +11961,14 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="86"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="1"/>
       <c r="E109" s="2" t="s">
         <v>227</v>
@@ -11971,14 +11987,14 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="A110" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C110" s="91"/>
+      <c r="C110" s="72"/>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
       <c r="F110" s="30" t="s">
@@ -11995,14 +12011,14 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="A111" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C111" s="87"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="6"/>
       <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
@@ -12019,27 +12035,27 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
+    <row r="112" spans="1:17">
+      <c r="A112" s="81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" s="100" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+    <row r="113" spans="1:23">
+      <c r="A113" s="81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="75"/>
+      <c r="B115" s="87"/>
       <c r="C115" s="64"/>
       <c r="D115" s="64"/>
-      <c r="E115" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="F115" s="85"/>
+      <c r="E115" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="F115" s="103"/>
       <c r="G115" s="64"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -12050,7 +12066,7 @@
       <c r="N115" s="9"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -12091,14 +12107,14 @@
       </c>
       <c r="O116" s="31"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23">
       <c r="A117" s="31" t="s">
         <v>269</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C117" s="91"/>
+      <c r="C117" s="72"/>
       <c r="D117" s="31"/>
       <c r="E117" s="31" t="s">
         <v>255</v>
@@ -12124,14 +12140,14 @@
       <c r="N117" s="7"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="86"/>
+      <c r="C118" s="67"/>
       <c r="D118" s="1"/>
       <c r="E118" s="2" t="s">
         <v>198</v>
@@ -12159,14 +12175,14 @@
       <c r="N118" s="2"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" s="19" customFormat="1">
       <c r="A119" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C119" s="86"/>
+      <c r="C119" s="67"/>
       <c r="D119" s="1"/>
       <c r="E119" s="22" t="s">
         <v>220</v>
@@ -12192,14 +12208,14 @@
       <c r="V119"/>
       <c r="W119"/>
     </row>
-    <row r="120" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" s="19" customFormat="1">
       <c r="A120" s="33" t="s">
         <v>263</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C120" s="94"/>
+      <c r="C120" s="75"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
         <v>265</v>
@@ -12228,14 +12244,14 @@
       <c r="V120"/>
       <c r="W120"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="87"/>
+      <c r="C121" s="68"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
@@ -12256,14 +12272,14 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23">
       <c r="A122" s="30" t="s">
         <v>225</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C122" s="92"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
         <v>226</v>
@@ -12287,14 +12303,14 @@
       </c>
       <c r="W122" s="19"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="87"/>
+      <c r="C123" s="68"/>
       <c r="D123" s="6"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
@@ -12313,16 +12329,16 @@
       <c r="O123" s="1"/>
       <c r="W123" s="19"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23">
       <c r="A124" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C124" s="87"/>
-      <c r="D124" s="103" t="s">
-        <v>354</v>
+      <c r="C124" s="68"/>
+      <c r="D124" s="84" t="s">
+        <v>353</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>219</v>
@@ -12343,16 +12359,16 @@
       <c r="O124" s="1"/>
       <c r="R124" s="19"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C125" s="95"/>
-      <c r="D125" s="101" t="s">
-        <v>350</v>
+      <c r="C125" s="76"/>
+      <c r="D125" s="82" t="s">
+        <v>349</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
@@ -12369,14 +12385,14 @@
       <c r="O125" s="1"/>
       <c r="R125" s="19"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C126" s="86"/>
+      <c r="C126" s="67"/>
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
@@ -12394,14 +12410,14 @@
       <c r="N126" s="2"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C127" s="86"/>
+      <c r="C127" s="67"/>
       <c r="D127" s="1"/>
       <c r="E127" s="17" t="s">
         <v>216</v>
@@ -12427,9 +12443,9 @@
       <c r="U127" s="19"/>
       <c r="V127" s="19"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128" s="98" t="s">
-        <v>352</v>
+    <row r="128" spans="1:23">
+      <c r="A128" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="O128" s="1"/>
       <c r="S128" s="19"/>
@@ -12437,95 +12453,114 @@
       <c r="U128" s="19"/>
       <c r="V128" s="19"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
+    <row r="129" spans="1:15">
+      <c r="A129" s="80" t="s">
         <v>344</v>
       </c>
+      <c r="B129" s="108" t="s">
+        <v>384</v>
+      </c>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="101" t="s">
+    <row r="130" spans="1:15">
+      <c r="A130" s="82" t="s">
         <v>121</v>
       </c>
+      <c r="B130" s="107" t="s">
+        <v>383</v>
+      </c>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="101" t="s">
+    <row r="131" spans="1:15">
+      <c r="A131" s="82" t="s">
         <v>21</v>
       </c>
+      <c r="B131" s="107"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="101" t="s">
+    <row r="132" spans="1:15">
+      <c r="A132" s="82" t="s">
         <v>124</v>
       </c>
+      <c r="B132" s="107"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="101" t="s">
+    <row r="133" spans="1:15" ht="16.2" customHeight="1">
+      <c r="A133" s="82" t="s">
         <v>125</v>
       </c>
+      <c r="B133" s="107"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="101" t="s">
+    <row r="134" spans="1:15">
+      <c r="A134" s="82" t="s">
         <v>126</v>
       </c>
+      <c r="B134" s="107"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="101" t="s">
+    <row r="135" spans="1:15">
+      <c r="A135" s="82" t="s">
         <v>127</v>
       </c>
+      <c r="B135" s="107"/>
+      <c r="D135" t="s">
+        <v>380</v>
+      </c>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="101" t="s">
+    <row r="136" spans="1:15">
+      <c r="A136" s="82" t="s">
         <v>129</v>
       </c>
+      <c r="B136" s="107"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="101" t="s">
+    <row r="137" spans="1:15">
+      <c r="A137" s="82" t="s">
         <v>130</v>
       </c>
+      <c r="B137" s="107"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="101" t="s">
+    <row r="138" spans="1:15">
+      <c r="A138" s="82" t="s">
         <v>131</v>
       </c>
+      <c r="B138" s="107"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="101" t="s">
-        <v>378</v>
-      </c>
+    <row r="139" spans="1:15">
+      <c r="A139" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" s="107"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="103" t="s">
+    <row r="140" spans="1:15">
+      <c r="A140" s="84" t="s">
         <v>133</v>
       </c>
+      <c r="B140" s="107"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="98" t="s">
-        <v>380</v>
+    <row r="141" spans="1:15">
+      <c r="A141" s="79" t="s">
+        <v>379</v>
       </c>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="75" t="s">
+    <row r="142" spans="1:15">
+      <c r="A142" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="75"/>
+      <c r="B142" s="87"/>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
-      <c r="E142" s="84" t="s">
+      <c r="E142" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F142" s="85"/>
+      <c r="F142" s="103"/>
       <c r="G142" s="64"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -12536,7 +12571,7 @@
       <c r="N142" s="9"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
         <v>25</v>
       </c>
@@ -12575,18 +12610,18 @@
       <c r="N143" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O143" s="98"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O143" s="79"/>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C144" s="86"/>
-      <c r="D144" s="101" t="s">
-        <v>356</v>
+      <c r="C144" s="67"/>
+      <c r="D144" s="82" t="s">
+        <v>355</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>291</v>
@@ -12606,18 +12641,18 @@
       <c r="N144" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="O144" s="99"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O144" s="80"/>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="31" t="s">
         <v>269</v>
       </c>
       <c r="B145" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C145" s="91"/>
-      <c r="D145" s="105" t="s">
-        <v>360</v>
+      <c r="C145" s="72"/>
+      <c r="D145" s="86" t="s">
+        <v>359</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>255</v>
@@ -12636,14 +12671,14 @@
       <c r="M145" s="2"/>
       <c r="N145" s="22"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C146" s="86"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="1"/>
       <c r="E146" s="17" t="s">
         <v>190</v>
@@ -12664,14 +12699,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C147" s="86"/>
+      <c r="C147" s="67"/>
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
@@ -12688,14 +12723,14 @@
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C148" s="86"/>
+      <c r="C148" s="67"/>
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
@@ -12712,16 +12747,16 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="86"/>
-      <c r="D149" s="104" t="s">
-        <v>358</v>
+      <c r="C149" s="67"/>
+      <c r="D149" s="85" t="s">
+        <v>357</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>292</v>
@@ -12741,15 +12776,15 @@
       <c r="N149" s="2"/>
       <c r="Q149" s="13"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C150" s="102" t="s">
-        <v>355</v>
+      <c r="C150" s="83" t="s">
+        <v>354</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
@@ -12768,14 +12803,14 @@
       <c r="N150" s="2"/>
       <c r="Q150" s="13"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C151" s="86"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
       <c r="F151" s="22" t="s">
@@ -12791,35 +12826,35 @@
       <c r="N151" s="2"/>
       <c r="Q151" s="13"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="100" t="s">
-        <v>361</v>
+    <row r="152" spans="1:18">
+      <c r="A152" s="81" t="s">
+        <v>360</v>
       </c>
       <c r="Q152" s="13"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="100" t="s">
-        <v>359</v>
+    <row r="153" spans="1:18">
+      <c r="A153" s="81" t="s">
+        <v>358</v>
       </c>
       <c r="Q153" s="13"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="98" t="s">
-        <v>363</v>
+    <row r="154" spans="1:18">
+      <c r="A154" s="79" t="s">
+        <v>362</v>
       </c>
       <c r="R154" s="13"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="75" t="s">
+    <row r="155" spans="1:18">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="75"/>
+      <c r="B155" s="87"/>
       <c r="C155" s="64"/>
       <c r="D155" s="64"/>
-      <c r="E155" s="84" t="s">
+      <c r="E155" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="F155" s="85"/>
+      <c r="F155" s="103"/>
       <c r="G155" s="64"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -12830,7 +12865,7 @@
       <c r="N155" s="9"/>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -12871,14 +12906,14 @@
       </c>
       <c r="R156" s="13"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C157" s="86"/>
+      <c r="C157" s="67"/>
       <c r="D157" s="1"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
@@ -12896,14 +12931,14 @@
       <c r="N157" s="2"/>
       <c r="R157" s="13"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C158" s="86"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
@@ -12921,14 +12956,14 @@
       <c r="N158" s="2"/>
       <c r="R158" s="13"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C159" s="95"/>
+      <c r="C159" s="76"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2" t="s">
@@ -12945,14 +12980,14 @@
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C160" s="86"/>
+      <c r="C160" s="67"/>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2" t="s">
@@ -12969,14 +13004,14 @@
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23">
       <c r="A161" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C161" s="87"/>
+      <c r="C161" s="68"/>
       <c r="D161" s="6"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
@@ -12993,16 +13028,16 @@
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23">
       <c r="A162" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C162" s="86"/>
-      <c r="D162" s="101" t="s">
-        <v>364</v>
+      <c r="C162" s="67"/>
+      <c r="D162" s="82" t="s">
+        <v>363</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
@@ -13019,27 +13054,27 @@
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A163" s="100" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A164" s="100" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A166" s="75" t="s">
+    <row r="163" spans="1:23">
+      <c r="A163" s="81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164" s="81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="A166" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="75"/>
+      <c r="B166" s="87"/>
       <c r="C166" s="64"/>
       <c r="D166" s="64"/>
-      <c r="E166" s="84" t="s">
+      <c r="E166" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="F166" s="85"/>
+      <c r="F166" s="103"/>
       <c r="G166" s="64"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -13049,7 +13084,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23">
       <c r="A167" s="2" t="s">
         <v>25</v>
       </c>
@@ -13089,14 +13124,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23">
       <c r="A168" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C168" s="92"/>
+      <c r="C168" s="73"/>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
         <v>256</v>
@@ -13117,14 +13152,14 @@
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23">
       <c r="A169" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C169" s="86"/>
+      <c r="C169" s="67"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
       <c r="F169" s="6" t="s">
@@ -13141,12 +13176,12 @@
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
     </row>
-    <row r="170" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="99" t="s">
-        <v>367</v>
+    <row r="170" spans="1:23" s="13" customFormat="1">
+      <c r="A170" s="80" t="s">
+        <v>366</v>
       </c>
       <c r="B170" s="27"/>
-      <c r="C170" s="96"/>
+      <c r="C170" s="77"/>
       <c r="D170" s="27"/>
       <c r="R170"/>
       <c r="S170"/>
@@ -13155,10 +13190,10 @@
       <c r="V170"/>
       <c r="W170"/>
     </row>
-    <row r="171" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" s="13" customFormat="1">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
-      <c r="C171" s="97"/>
+      <c r="C171" s="78"/>
       <c r="D171" s="26"/>
       <c r="G171" s="28"/>
       <c r="R171"/>
@@ -13168,10 +13203,10 @@
       <c r="V171"/>
       <c r="W171"/>
     </row>
-    <row r="172" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" s="13" customFormat="1">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
-      <c r="C172" s="89"/>
+      <c r="C172" s="70"/>
       <c r="D172" s="29"/>
       <c r="G172" s="28"/>
       <c r="R172"/>
@@ -13181,17 +13216,17 @@
       <c r="V172"/>
       <c r="W172"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A173" s="75" t="s">
+    <row r="173" spans="1:23">
+      <c r="A173" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="75"/>
+      <c r="B173" s="87"/>
       <c r="C173" s="64"/>
       <c r="D173" s="64"/>
-      <c r="E173" s="106" t="s">
-        <v>368</v>
-      </c>
-      <c r="F173" s="85"/>
+      <c r="E173" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="F173" s="103"/>
       <c r="G173" s="64"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -13202,7 +13237,7 @@
       <c r="N173" s="9"/>
       <c r="W173" s="13"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23">
       <c r="A174" s="2" t="s">
         <v>25</v>
       </c>
@@ -13243,14 +13278,14 @@
       </c>
       <c r="W174" s="13"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23">
       <c r="A175" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C175" s="86"/>
+      <c r="C175" s="67"/>
       <c r="D175" s="1"/>
       <c r="E175" s="6" t="s">
         <v>293</v>
@@ -13271,16 +13306,16 @@
       <c r="R175" s="13"/>
       <c r="W175" s="13"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23">
       <c r="A176" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C176" s="86"/>
-      <c r="D176" s="101" t="s">
-        <v>369</v>
+      <c r="C176" s="67"/>
+      <c r="D176" s="82" t="s">
+        <v>368</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>294</v>
@@ -13300,38 +13335,59 @@
       <c r="N176" s="2"/>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177" s="99" t="s">
+    <row r="177" spans="1:22">
+      <c r="A177" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="R177" s="13"/>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="80" t="s">
         <v>370</v>
-      </c>
-      <c r="R177" s="13"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A178" s="99" t="s">
-        <v>371</v>
       </c>
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
       <c r="U178" s="13"/>
       <c r="V178" s="13"/>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A179" s="99" t="s">
-        <v>372</v>
+    <row r="179" spans="1:22">
+      <c r="A179" s="80" t="s">
+        <v>371</v>
       </c>
       <c r="S179" s="13"/>
       <c r="T179" s="13"/>
       <c r="U179" s="13"/>
       <c r="V179" s="13"/>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22">
       <c r="S180" s="13"/>
       <c r="T180" s="13"/>
       <c r="U180" s="13"/>
       <c r="V180" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B130:B140"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="R38:U39"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="E115:F115"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="E166:F166"/>
@@ -13342,26 +13398,6 @@
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="A155:B155"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="R38:U39"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/資料庫建立檢表.xlsx
+++ b/DataBase/資料庫建立檢表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="384">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1673,6 +1673,11 @@
       </rPr>
       <t>資料reserve</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是預約應該
+不需要這些欄位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2267,21 +2272,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,6 +2293,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2312,16 +2317,10 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2330,7 +2329,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2667,14 +2672,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="88"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2902,8 +2907,8 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:22">
@@ -3015,12 +3020,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="92" t="s">
+      <c r="P13" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
@@ -3044,10 +3049,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
@@ -3073,10 +3078,10 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
@@ -3164,20 +3169,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="95"/>
+      <c r="C20" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="88"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3422,8 +3427,8 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
@@ -3651,8 +3656,8 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
@@ -3791,21 +3796,21 @@
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:25">
-      <c r="P38" s="96" t="s">
+      <c r="P38" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="P39" s="96"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
@@ -3829,21 +3834,21 @@
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:25">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="88"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4179,8 +4184,8 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
@@ -4507,14 +4512,14 @@
       <c r="V61" s="63"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88" t="s">
+      <c r="B62" s="95"/>
+      <c r="C62" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="88"/>
+      <c r="D62" s="95"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -5061,14 +5066,14 @@
       <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:21" s="13" customFormat="1">
-      <c r="A86" s="88" t="s">
+      <c r="A86" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88" t="s">
+      <c r="B86" s="95"/>
+      <c r="C86" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="88"/>
+      <c r="D86" s="95"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5333,14 +5338,14 @@
       <c r="L96" s="2"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="88" t="s">
+      <c r="A100" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88" t="s">
+      <c r="B100" s="95"/>
+      <c r="C100" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="88"/>
+      <c r="D100" s="95"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5623,14 +5628,14 @@
       <c r="L111" s="2"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="88" t="s">
+      <c r="A115" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="88"/>
-      <c r="C115" s="88" t="s">
+      <c r="B115" s="95"/>
+      <c r="C115" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="88"/>
+      <c r="D115" s="95"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5984,14 +5989,14 @@
       <c r="T128" s="19"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="88" t="s">
+      <c r="A131" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="88"/>
-      <c r="C131" s="88" t="s">
+      <c r="B131" s="95"/>
+      <c r="C131" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="88"/>
+      <c r="D131" s="95"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6238,14 +6243,14 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="88" t="s">
+      <c r="A144" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="88"/>
-      <c r="C144" s="88" t="s">
+      <c r="B144" s="95"/>
+      <c r="C144" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="88"/>
+      <c r="D144" s="95"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6430,14 +6435,14 @@
       <c r="L151" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="88" t="s">
+      <c r="A155" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="88"/>
-      <c r="C155" s="88" t="s">
+      <c r="B155" s="95"/>
+      <c r="C155" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="88"/>
+      <c r="D155" s="95"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6566,14 +6571,14 @@
       <c r="U161"/>
     </row>
     <row r="162" spans="1:21">
-      <c r="A162" s="88" t="s">
+      <c r="A162" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="88"/>
-      <c r="C162" s="88" t="s">
+      <c r="B162" s="95"/>
+      <c r="C162" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="88"/>
+      <c r="D162" s="95"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6697,20 +6702,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6727,6 +6718,20 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6745,14 +6750,14 @@
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="E1" s="102" t="s">
+      <c r="C1" s="98"/>
+      <c r="E1" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="102"/>
+      <c r="F1" s="98"/>
       <c r="H1" s="101" t="s">
         <v>306</v>
       </c>
@@ -6761,10 +6766,10 @@
         <v>307</v>
       </c>
       <c r="L1" s="101"/>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="102"/>
+      <c r="O1" s="98"/>
     </row>
     <row r="2" spans="2:15">
       <c r="B2" s="99" t="s">
@@ -6861,14 +6866,14 @@
       <c r="O8" s="100"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="E11" s="102" t="s">
+      <c r="C11" s="98"/>
+      <c r="E11" s="98" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="102"/>
+      <c r="F11" s="98"/>
       <c r="H11" s="101" t="s">
         <v>305</v>
       </c>
@@ -6877,10 +6882,10 @@
         <v>308</v>
       </c>
       <c r="L11" s="101"/>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="98" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="102"/>
+      <c r="O11" s="98"/>
     </row>
     <row r="12" spans="2:15" ht="16.2" customHeight="1">
       <c r="B12" s="99" t="s">
@@ -6977,10 +6982,10 @@
       <c r="O18" s="100"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="102"/>
+      <c r="F21" s="98"/>
     </row>
     <row r="22" spans="2:15">
       <c r="E22" s="99" t="s">
@@ -7014,14 +7019,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7036,6 +7033,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7077,14 +7082,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="88"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7257,14 +7262,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7433,14 +7438,14 @@
       <c r="J25" s="2"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7561,14 +7566,14 @@
       <c r="J36" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88" t="s">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="88"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7737,14 +7742,14 @@
       <c r="J50" s="2"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88" t="s">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="88"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -7865,14 +7870,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88" t="s">
+      <c r="B66" s="95"/>
+      <c r="C66" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="88"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7993,14 +7998,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="88"/>
-      <c r="C77" s="88" t="s">
+      <c r="B77" s="95"/>
+      <c r="C77" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="88"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8169,14 +8174,14 @@
       <c r="J86" s="2"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="88" t="s">
+      <c r="A91" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88" t="s">
+      <c r="B91" s="95"/>
+      <c r="C91" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="88"/>
+      <c r="D91" s="95"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8361,14 +8366,14 @@
       <c r="J101" s="2"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="88" t="s">
+      <c r="A106" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88" t="s">
+      <c r="B106" s="95"/>
+      <c r="C106" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="88"/>
+      <c r="D106" s="95"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8441,14 +8446,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="88" t="s">
+      <c r="A114" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="88"/>
-      <c r="C114" s="88" t="s">
+      <c r="B114" s="95"/>
+      <c r="C114" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="88"/>
+      <c r="D114" s="95"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8521,14 +8526,14 @@
       <c r="J117" s="2"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="88" t="s">
+      <c r="A122" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="88"/>
-      <c r="C122" s="88" t="s">
+      <c r="B122" s="95"/>
+      <c r="C122" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="88"/>
+      <c r="D122" s="95"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8666,18 +8671,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8688,6 +8681,18 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8702,8 +8707,8 @@
   </sheetPr>
   <dimension ref="A1:AA180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:B140"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8730,20 +8735,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="103"/>
       <c r="G1" s="64"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -9001,8 +9006,8 @@
       <c r="R9" s="19"/>
       <c r="S9" s="34"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:24">
@@ -9132,12 +9137,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="R13" s="92" t="s">
+      <c r="R13" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="47"/>
       <c r="W13" s="47"/>
       <c r="X13" s="48"/>
@@ -9165,10 +9170,10 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
       <c r="X14" s="49"/>
@@ -9198,10 +9203,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="49"/>
@@ -9297,26 +9302,26 @@
       <c r="T19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
       <c r="W19" s="13"/>
       <c r="X19" s="49"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="88"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="F20" s="107"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="64"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -9583,8 +9588,8 @@
       <c r="T26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
       <c r="W26" s="13"/>
       <c r="X26" s="49"/>
     </row>
@@ -9848,8 +9853,8 @@
       <c r="T33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
       <c r="W33" s="13"/>
       <c r="X33" s="49"/>
     </row>
@@ -10008,21 +10013,21 @@
       <c r="X37" s="49"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="R38" s="96" t="s">
+      <c r="R38" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="49"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="R39" s="96"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="49"/>
@@ -10046,23 +10051,23 @@
       <c r="S41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="49"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="88"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="104"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="64"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -10426,8 +10431,8 @@
       <c r="S50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="96"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
       <c r="X50" s="49"/>
@@ -10796,16 +10801,16 @@
       <c r="X61" s="63"/>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="88"/>
+      <c r="B62" s="95"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="103" t="s">
+      <c r="E62" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="F62" s="104"/>
+      <c r="F62" s="103"/>
       <c r="G62" s="64"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -11412,16 +11417,16 @@
       <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:23" s="13" customFormat="1">
-      <c r="A86" s="88" t="s">
+      <c r="A86" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="88"/>
+      <c r="B86" s="95"/>
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
-      <c r="E86" s="103" t="s">
+      <c r="E86" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="104"/>
+      <c r="F86" s="103"/>
       <c r="G86" s="64"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -11711,16 +11716,16 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="88" t="s">
+      <c r="A100" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="88"/>
+      <c r="B100" s="95"/>
       <c r="C100" s="64"/>
       <c r="D100" s="64"/>
-      <c r="E100" s="103" t="s">
+      <c r="E100" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="F100" s="104"/>
+      <c r="F100" s="103"/>
       <c r="G100" s="64"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -12037,16 +12042,16 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="88" t="s">
+      <c r="A115" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="88"/>
+      <c r="B115" s="95"/>
       <c r="C115" s="64"/>
       <c r="D115" s="64"/>
-      <c r="E115" s="106" t="s">
+      <c r="E115" s="104" t="s">
         <v>382</v>
       </c>
-      <c r="F115" s="104"/>
+      <c r="F115" s="103"/>
       <c r="G115" s="64"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -12448,49 +12453,51 @@
       <c r="A129" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="B129" s="87"/>
+      <c r="B129" s="108" t="s">
+        <v>383</v>
+      </c>
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="108"/>
+      <c r="B130" s="107"/>
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B131" s="108"/>
+      <c r="B131" s="107"/>
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="108"/>
+      <c r="B132" s="107"/>
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15" ht="16.2" customHeight="1">
       <c r="A133" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="108"/>
+      <c r="B133" s="107"/>
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B134" s="108"/>
+      <c r="B134" s="107"/>
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="108"/>
+      <c r="B135" s="107"/>
       <c r="D135" t="s">
         <v>380</v>
       </c>
@@ -12500,35 +12507,35 @@
       <c r="A136" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="108"/>
+      <c r="B136" s="107"/>
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B137" s="108"/>
+      <c r="B137" s="107"/>
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="B138" s="108"/>
+      <c r="B138" s="107"/>
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="B139" s="108"/>
+      <c r="B139" s="107"/>
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B140" s="108"/>
+      <c r="B140" s="107"/>
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
@@ -12538,16 +12545,16 @@
       <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="88" t="s">
+      <c r="A142" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="88"/>
+      <c r="B142" s="95"/>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
-      <c r="E142" s="103" t="s">
+      <c r="E142" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="F142" s="104"/>
+      <c r="F142" s="103"/>
       <c r="G142" s="64"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -12832,16 +12839,16 @@
       <c r="R154" s="13"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" s="88" t="s">
+      <c r="A155" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="88"/>
+      <c r="B155" s="95"/>
       <c r="C155" s="64"/>
       <c r="D155" s="64"/>
-      <c r="E155" s="103" t="s">
+      <c r="E155" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="F155" s="104"/>
+      <c r="F155" s="103"/>
       <c r="G155" s="64"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -13052,16 +13059,16 @@
       </c>
     </row>
     <row r="166" spans="1:23">
-      <c r="A166" s="88" t="s">
+      <c r="A166" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="88"/>
+      <c r="B166" s="95"/>
       <c r="C166" s="64"/>
       <c r="D166" s="64"/>
-      <c r="E166" s="103" t="s">
+      <c r="E166" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="F166" s="104"/>
+      <c r="F166" s="103"/>
       <c r="G166" s="64"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -13204,16 +13211,16 @@
       <c r="W172"/>
     </row>
     <row r="173" spans="1:23">
-      <c r="A173" s="88" t="s">
+      <c r="A173" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="88"/>
+      <c r="B173" s="95"/>
       <c r="C173" s="64"/>
       <c r="D173" s="64"/>
-      <c r="E173" s="105" t="s">
+      <c r="E173" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="F173" s="104"/>
+      <c r="F173" s="103"/>
       <c r="G173" s="64"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -13354,14 +13361,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="B129:B140"/>
     <mergeCell ref="A173:B173"/>
     <mergeCell ref="E173:F173"/>
     <mergeCell ref="E155:F155"/>
@@ -13378,13 +13384,14 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="T50:U50"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="B130:B140"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/資料庫建立檢表.xlsx
+++ b/DataBase/資料庫建立檢表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="384">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,6 +1459,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(預約資料)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>資料資料reserve</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>預約訂單成立之時?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,10 +1627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>應該要和單項總額擇一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>單日租賃金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1622,62 +1643,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>租賃頁面N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約成功N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>租賃與購物訂單資料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ord</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>預約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>資料reserve</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只是預約應該
-不需要這些欄位</t>
+    <t>應該可以不用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1688,7 +1666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1801,14 +1779,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2010,7 +1980,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2272,6 +2242,18 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2293,21 +2275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2317,26 +2284,26 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2672,14 +2639,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2907,8 +2874,8 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:22">
@@ -3020,12 +2987,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="87" t="s">
+      <c r="P13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
@@ -3049,10 +3016,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
@@ -3078,10 +3045,10 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
@@ -3169,20 +3136,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3427,8 +3394,8 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
@@ -3656,8 +3623,8 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
@@ -3796,21 +3763,21 @@
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:25">
-      <c r="P38" s="91" t="s">
+      <c r="P38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="P39" s="91"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
@@ -3834,21 +3801,21 @@
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:25">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="95"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4184,8 +4151,8 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
@@ -4512,14 +4479,14 @@
       <c r="V61" s="63"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="95"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -5066,14 +5033,14 @@
       <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:21" s="13" customFormat="1">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="95"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5338,14 +5305,14 @@
       <c r="L96" s="2"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95" t="s">
+      <c r="B100" s="87"/>
+      <c r="C100" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="95"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5628,14 +5595,14 @@
       <c r="L111" s="2"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="95" t="s">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="95"/>
-      <c r="C115" s="95" t="s">
+      <c r="B115" s="87"/>
+      <c r="C115" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="95"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5989,14 +5956,14 @@
       <c r="T128" s="19"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="95" t="s">
+      <c r="A131" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="95"/>
-      <c r="C131" s="95" t="s">
+      <c r="B131" s="87"/>
+      <c r="C131" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="95"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6243,14 +6210,14 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="95" t="s">
+      <c r="A144" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="95"/>
-      <c r="C144" s="95" t="s">
+      <c r="B144" s="87"/>
+      <c r="C144" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="95"/>
+      <c r="D144" s="87"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6435,14 +6402,14 @@
       <c r="L151" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="95" t="s">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="95"/>
-      <c r="C155" s="95" t="s">
+      <c r="B155" s="87"/>
+      <c r="C155" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="95"/>
+      <c r="D155" s="87"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6571,14 +6538,14 @@
       <c r="U161"/>
     </row>
     <row r="162" spans="1:21">
-      <c r="A162" s="95" t="s">
+      <c r="A162" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="95"/>
-      <c r="C162" s="95" t="s">
+      <c r="B162" s="87"/>
+      <c r="C162" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="95"/>
+      <c r="D162" s="87"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6702,6 +6669,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6718,20 +6699,6 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6750,275 +6717,283 @@
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="E1" s="98" t="s">
+      <c r="C1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="H1" s="101" t="s">
+      <c r="F1" s="101"/>
+      <c r="H1" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="K1" s="101" t="s">
+      <c r="I1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="N1" s="98" t="s">
+      <c r="L1" s="100"/>
+      <c r="N1" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="98"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="E2" s="99" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="H2" s="99" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="K2" s="99" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="N2" s="99" t="s">
+      <c r="L2" s="99"/>
+      <c r="N2" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="100"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="E11" s="98" t="s">
+      <c r="C11" s="101"/>
+      <c r="E11" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="H11" s="101" t="s">
+      <c r="F11" s="101"/>
+      <c r="H11" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="K11" s="101" t="s">
+      <c r="I11" s="100"/>
+      <c r="K11" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="N11" s="98" t="s">
+      <c r="L11" s="100"/>
+      <c r="N11" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="98"/>
+      <c r="O11" s="101"/>
     </row>
     <row r="12" spans="2:15" ht="16.2" customHeight="1">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="E12" s="99" t="s">
+      <c r="C12" s="99"/>
+      <c r="E12" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="H12" s="99" t="s">
+      <c r="F12" s="99"/>
+      <c r="H12" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="K12" s="99" t="s">
+      <c r="I12" s="99"/>
+      <c r="K12" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="100"/>
-      <c r="N12" s="99" t="s">
+      <c r="L12" s="99"/>
+      <c r="N12" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="100"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="100"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7033,14 +7008,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7082,14 +7049,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7262,14 +7229,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7438,14 +7405,14 @@
       <c r="J25" s="2"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="95"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7566,14 +7533,14 @@
       <c r="J36" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="95"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7742,14 +7709,14 @@
       <c r="J50" s="2"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -7870,14 +7837,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95" t="s">
+      <c r="B66" s="87"/>
+      <c r="C66" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="95"/>
+      <c r="D66" s="87"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -7998,14 +7965,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="95"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8174,14 +8141,14 @@
       <c r="J86" s="2"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95" t="s">
+      <c r="B91" s="87"/>
+      <c r="C91" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="95"/>
+      <c r="D91" s="87"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8366,14 +8333,14 @@
       <c r="J101" s="2"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="95" t="s">
+      <c r="A106" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95" t="s">
+      <c r="B106" s="87"/>
+      <c r="C106" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="95"/>
+      <c r="D106" s="87"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8446,14 +8413,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="95" t="s">
+      <c r="A114" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="95"/>
-      <c r="C114" s="95" t="s">
+      <c r="B114" s="87"/>
+      <c r="C114" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="95"/>
+      <c r="D114" s="87"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8526,14 +8493,14 @@
       <c r="J117" s="2"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="95" t="s">
+      <c r="A122" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="95"/>
-      <c r="C122" s="95" t="s">
+      <c r="B122" s="87"/>
+      <c r="C122" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="95"/>
+      <c r="D122" s="87"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8671,6 +8638,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8681,18 +8660,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8707,8 +8674,8 @@
   </sheetPr>
   <dimension ref="A1:AA180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8735,17 +8702,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="104" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="103"/>
@@ -9006,8 +8973,8 @@
       <c r="R9" s="19"/>
       <c r="S9" s="34"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:24">
@@ -9137,12 +9104,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="R13" s="87" t="s">
+      <c r="R13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="47"/>
       <c r="W13" s="47"/>
       <c r="X13" s="48"/>
@@ -9170,10 +9137,10 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
       <c r="X14" s="49"/>
@@ -9203,10 +9170,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="49"/>
@@ -9302,26 +9269,26 @@
       <c r="T19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
       <c r="W19" s="13"/>
       <c r="X19" s="49"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="64" t="s">
         <v>323</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="F20" s="105"/>
+      <c r="E20" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="107"/>
       <c r="G20" s="64"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -9588,8 +9555,8 @@
       <c r="T26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
       <c r="W26" s="13"/>
       <c r="X26" s="49"/>
     </row>
@@ -9853,8 +9820,8 @@
       <c r="T33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
       <c r="W33" s="13"/>
       <c r="X33" s="49"/>
     </row>
@@ -10013,21 +9980,21 @@
       <c r="X37" s="49"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="R38" s="91" t="s">
+      <c r="R38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="49"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="R39" s="91"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="49"/>
@@ -10051,20 +10018,20 @@
       <c r="S41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="49"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="104" t="s">
         <v>136</v>
       </c>
       <c r="F42" s="103"/>
@@ -10431,8 +10398,8 @@
       <c r="S50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="T50" s="96"/>
-      <c r="U50" s="96"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
       <c r="X50" s="49"/>
@@ -10756,7 +10723,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R59" s="50"/>
       <c r="S59" s="38" t="s">
@@ -10801,13 +10768,13 @@
       <c r="X61" s="63"/>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="95"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="104" t="s">
         <v>249</v>
       </c>
       <c r="F62" s="103"/>
@@ -11028,7 +10995,9 @@
         <v>224</v>
       </c>
       <c r="C69" s="73"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="82" t="s">
+        <v>380</v>
+      </c>
       <c r="E69" s="30" t="s">
         <v>226</v>
       </c>
@@ -11082,7 +11051,7 @@
       </c>
       <c r="C71" s="67"/>
       <c r="D71" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -11133,7 +11102,7 @@
       </c>
       <c r="C73" s="67"/>
       <c r="D73" s="82" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
@@ -11159,7 +11128,7 @@
       </c>
       <c r="C74" s="67"/>
       <c r="D74" s="82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -11189,8 +11158,9 @@
       <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="82" t="s">
+        <v>380</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
         <v>178</v>
@@ -11217,8 +11187,9 @@
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="67"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="82" t="s">
+        <v>380</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
         <v>178</v>
@@ -11276,7 +11247,7 @@
       </c>
       <c r="C78" s="68"/>
       <c r="D78" s="84" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -11390,7 +11361,7 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
@@ -11417,13 +11388,13 @@
       <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:23" s="13" customFormat="1">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="95"/>
+      <c r="B86" s="87"/>
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
-      <c r="E86" s="102" t="s">
+      <c r="E86" s="104" t="s">
         <v>246</v>
       </c>
       <c r="F86" s="103"/>
@@ -11716,13 +11687,13 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="95"/>
+      <c r="B100" s="87"/>
       <c r="C100" s="64"/>
       <c r="D100" s="64"/>
-      <c r="E100" s="102" t="s">
+      <c r="E100" s="104" t="s">
         <v>247</v>
       </c>
       <c r="F100" s="103"/>
@@ -12038,18 +12009,18 @@
     </row>
     <row r="113" spans="1:23">
       <c r="A113" s="81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="95" t="s">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="95"/>
+      <c r="B115" s="87"/>
       <c r="C115" s="64"/>
       <c r="D115" s="64"/>
-      <c r="E115" s="104" t="s">
-        <v>382</v>
+      <c r="E115" s="102" t="s">
+        <v>349</v>
       </c>
       <c r="F115" s="103"/>
       <c r="G115" s="64"/>
@@ -12111,7 +12082,9 @@
         <v>204</v>
       </c>
       <c r="C117" s="72"/>
-      <c r="D117" s="31"/>
+      <c r="D117" s="31" t="s">
+        <v>381</v>
+      </c>
       <c r="E117" s="31" t="s">
         <v>255</v>
       </c>
@@ -12327,14 +12300,14 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C124" s="68"/>
       <c r="D124" s="84" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>219</v>
@@ -12364,7 +12337,7 @@
       </c>
       <c r="C125" s="76"/>
       <c r="D125" s="82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
@@ -12441,7 +12414,7 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128" s="79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O128" s="1"/>
       <c r="S128" s="19"/>
@@ -12453,7 +12426,7 @@
       <c r="A129" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="B129" s="108" t="s">
+      <c r="B129" s="106" t="s">
         <v>383</v>
       </c>
       <c r="O129" s="1"/>
@@ -12462,80 +12435,77 @@
       <c r="A130" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="107"/>
+      <c r="B130" s="106"/>
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B131" s="107"/>
+      <c r="B131" s="106"/>
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="107"/>
+      <c r="B132" s="106"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="16.2" customHeight="1">
+    <row r="133" spans="1:15">
       <c r="A133" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="107"/>
+      <c r="B133" s="106"/>
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B134" s="107"/>
+      <c r="B134" s="106"/>
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="107"/>
-      <c r="D135" t="s">
-        <v>380</v>
-      </c>
+      <c r="B135" s="106"/>
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="107"/>
+      <c r="B136" s="106"/>
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B137" s="107"/>
+      <c r="B137" s="106"/>
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="B138" s="107"/>
+      <c r="B138" s="106"/>
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="B139" s="107"/>
+      <c r="B139" s="106"/>
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B140" s="107"/>
+      <c r="B140" s="106"/>
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
@@ -12545,13 +12515,13 @@
       <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="95" t="s">
+      <c r="A142" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="95"/>
+      <c r="B142" s="87"/>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
-      <c r="E142" s="102" t="s">
+      <c r="E142" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F142" s="103"/>
@@ -12615,7 +12585,7 @@
       </c>
       <c r="C144" s="67"/>
       <c r="D144" s="82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>291</v>
@@ -12646,7 +12616,7 @@
       </c>
       <c r="C145" s="72"/>
       <c r="D145" s="86" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E145" s="31" t="s">
         <v>255</v>
@@ -12750,7 +12720,7 @@
       </c>
       <c r="C149" s="67"/>
       <c r="D149" s="85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>292</v>
@@ -12778,7 +12748,7 @@
         <v>97</v>
       </c>
       <c r="C150" s="83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
@@ -12799,7 +12769,7 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>234</v>
@@ -12822,30 +12792,30 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q152" s="13"/>
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q153" s="13"/>
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="79" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R154" s="13"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" s="95" t="s">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="95"/>
+      <c r="B155" s="87"/>
       <c r="C155" s="64"/>
       <c r="D155" s="64"/>
-      <c r="E155" s="102" t="s">
+      <c r="E155" s="104" t="s">
         <v>166</v>
       </c>
       <c r="F155" s="103"/>
@@ -13031,7 +13001,7 @@
       </c>
       <c r="C162" s="67"/>
       <c r="D162" s="82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
@@ -13050,22 +13020,22 @@
     </row>
     <row r="163" spans="1:23">
       <c r="A163" s="81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:23">
       <c r="A164" s="81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:23">
-      <c r="A166" s="95" t="s">
+      <c r="A166" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="95"/>
+      <c r="B166" s="87"/>
       <c r="C166" s="64"/>
       <c r="D166" s="64"/>
-      <c r="E166" s="102" t="s">
+      <c r="E166" s="104" t="s">
         <v>237</v>
       </c>
       <c r="F166" s="103"/>
@@ -13148,7 +13118,7 @@
     </row>
     <row r="169" spans="1:23">
       <c r="A169" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>240</v>
@@ -13172,7 +13142,7 @@
     </row>
     <row r="170" spans="1:23" s="13" customFormat="1">
       <c r="A170" s="80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B170" s="27"/>
       <c r="C170" s="77"/>
@@ -13211,14 +13181,14 @@
       <c r="W172"/>
     </row>
     <row r="173" spans="1:23">
-      <c r="A173" s="95" t="s">
+      <c r="A173" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="95"/>
+      <c r="B173" s="87"/>
       <c r="C173" s="64"/>
       <c r="D173" s="64"/>
-      <c r="E173" s="106" t="s">
-        <v>367</v>
+      <c r="E173" s="105" t="s">
+        <v>368</v>
       </c>
       <c r="F173" s="103"/>
       <c r="G173" s="64"/>
@@ -13309,7 +13279,7 @@
       </c>
       <c r="C176" s="67"/>
       <c r="D176" s="82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>294</v>
@@ -13331,13 +13301,13 @@
     </row>
     <row r="177" spans="1:22">
       <c r="A177" s="80" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R177" s="13"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="80" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
@@ -13346,7 +13316,7 @@
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="S179" s="13"/>
       <c r="T179" s="13"/>
@@ -13361,16 +13331,10 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="B129:B140"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="R13:U15"/>
     <mergeCell ref="U19:V19"/>
@@ -13384,14 +13348,20 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="T50:U50"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E115:F115"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="B129:B140"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
